--- a/database/industries/siman/sekhash/cost/quarterly.xlsx
+++ b/database/industries/siman/sekhash/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhash\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC33E31-6954-4F23-BCFB-BD74B4FE3366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D316EBD1-6053-41F7-825B-E87202AC49F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -727,16 +742,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I193"/>
+  <dimension ref="B1:N193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,8 +760,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,8 +777,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -769,8 +794,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -779,8 +809,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -791,8 +826,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -803,8 +843,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -813,8 +858,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -835,8 +885,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -845,98 +910,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>59712</v>
+      </c>
+      <c r="F10" s="9">
+        <v>63885</v>
+      </c>
+      <c r="G10" s="9">
+        <v>83371</v>
+      </c>
+      <c r="H10" s="9">
+        <v>70526</v>
+      </c>
+      <c r="I10" s="9">
+        <v>50408</v>
+      </c>
+      <c r="J10" s="9">
         <v>126945</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>137033</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>115975</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>117280</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>224559</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>27174</v>
+      </c>
+      <c r="F11" s="11">
+        <v>20639</v>
+      </c>
+      <c r="G11" s="11">
+        <v>18408</v>
+      </c>
+      <c r="H11" s="11">
+        <v>23656</v>
+      </c>
+      <c r="I11" s="11">
+        <v>26025</v>
+      </c>
+      <c r="J11" s="11">
         <v>31210</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>55296</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>17410</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>56808</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>41644</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>264169</v>
+      </c>
+      <c r="F12" s="9">
+        <v>424207</v>
+      </c>
+      <c r="G12" s="9">
+        <v>231632</v>
+      </c>
+      <c r="H12" s="9">
+        <v>449335</v>
+      </c>
+      <c r="I12" s="9">
+        <v>424576</v>
+      </c>
+      <c r="J12" s="9">
         <v>420178</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>694795</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>545654</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>653500</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>944546</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>351055</v>
+      </c>
+      <c r="F13" s="13">
+        <v>508731</v>
+      </c>
+      <c r="G13" s="13">
+        <v>333411</v>
+      </c>
+      <c r="H13" s="13">
+        <v>543517</v>
+      </c>
+      <c r="I13" s="13">
+        <v>501009</v>
+      </c>
+      <c r="J13" s="13">
         <v>578333</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>887124</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>679039</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>827588</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>1210749</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -955,54 +1085,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>351055</v>
+      </c>
+      <c r="F15" s="13">
+        <v>508731</v>
+      </c>
+      <c r="G15" s="13">
+        <v>333411</v>
+      </c>
+      <c r="H15" s="13">
+        <v>543517</v>
+      </c>
+      <c r="I15" s="13">
+        <v>501009</v>
+      </c>
+      <c r="J15" s="13">
         <v>578333</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>887124</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>679039</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>827588</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>1210749</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>6994</v>
+      </c>
+      <c r="F16" s="9">
+        <v>62006</v>
+      </c>
+      <c r="G16" s="9">
+        <v>33569</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-54</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-53290</v>
+      </c>
+      <c r="J16" s="9">
         <v>-61474</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-60502</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-165494</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-79050</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-199885</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1021,32 +1196,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>358049</v>
+      </c>
+      <c r="F18" s="15">
+        <v>570737</v>
+      </c>
+      <c r="G18" s="15">
+        <v>366980</v>
+      </c>
+      <c r="H18" s="15">
+        <v>543463</v>
+      </c>
+      <c r="I18" s="15">
+        <v>447719</v>
+      </c>
+      <c r="J18" s="15">
         <v>516859</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>826622</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>513545</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>748538</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>1010864</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1054,65 +1259,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>3116</v>
+      </c>
+      <c r="H19" s="11">
+        <v>27732</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>3665</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>66444</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>5940</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>67327</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>12636</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3116</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-27732</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-56430</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1272</v>
+      </c>
+      <c r="J20" s="9">
         <v>3665</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-66444</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-5940</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-67327</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-90720</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>370685</v>
+      </c>
+      <c r="F21" s="13">
+        <v>573853</v>
+      </c>
+      <c r="G21" s="13">
+        <v>370445</v>
+      </c>
+      <c r="H21" s="13">
+        <v>514765</v>
+      </c>
+      <c r="I21" s="13">
+        <v>448991</v>
+      </c>
+      <c r="J21" s="13">
         <v>520524</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>811671</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>574049</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>687151</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>987471</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1131,30 +1381,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>370685</v>
+      </c>
+      <c r="F23" s="13">
+        <v>573853</v>
+      </c>
+      <c r="G23" s="13">
+        <v>370445</v>
+      </c>
+      <c r="H23" s="13">
+        <v>514765</v>
+      </c>
+      <c r="I23" s="13">
+        <v>448991</v>
+      </c>
+      <c r="J23" s="13">
         <v>520524</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>811671</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>574049</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>687151</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>987471</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1163,8 +1443,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1173,8 +1458,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1183,10 +1473,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1205,8 +1500,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1215,174 +1525,284 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>2976</v>
+      </c>
+      <c r="F29" s="9">
+        <v>50</v>
+      </c>
+      <c r="G29" s="9">
+        <v>379174</v>
+      </c>
+      <c r="H29" s="9">
+        <v>351754</v>
+      </c>
+      <c r="I29" s="9">
+        <v>327503</v>
+      </c>
+      <c r="J29" s="9">
         <v>351481</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>351514</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>269736</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>376291</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>332307</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>832</v>
+      </c>
+      <c r="F30" s="11">
+        <v>3218</v>
+      </c>
+      <c r="G30" s="11">
+        <v>85</v>
+      </c>
+      <c r="H30" s="11">
+        <v>2469</v>
+      </c>
+      <c r="I30" s="11">
+        <v>265</v>
+      </c>
+      <c r="J30" s="11">
         <v>15143</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>17670</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>21727</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>14638</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>12087</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>1124228</v>
+      </c>
+      <c r="F31" s="9">
+        <v>997709</v>
+      </c>
+      <c r="G31" s="9">
+        <v>513413</v>
+      </c>
+      <c r="H31" s="9">
+        <v>490632</v>
+      </c>
+      <c r="I31" s="9">
+        <v>461214</v>
+      </c>
+      <c r="J31" s="9">
         <v>421296</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>365331</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>446397</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>515110</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>562939</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>26380</v>
+      </c>
+      <c r="F32" s="11">
+        <v>12420</v>
+      </c>
+      <c r="G32" s="11">
+        <v>17</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>390</v>
+      </c>
+      <c r="J32" s="11">
         <v>58</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>39781</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>102204</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>117494</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>100125</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>11814</v>
+      </c>
+      <c r="F33" s="9">
+        <v>5689</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1927</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1488</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1974</v>
+      </c>
+      <c r="J33" s="9">
         <v>1908</v>
       </c>
-      <c r="F33" s="9">
+      <c r="K33" s="9">
         <v>2404</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>5745</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>5693</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>6802</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
+        <v>1166230</v>
+      </c>
+      <c r="F35" s="15">
+        <v>1019086</v>
+      </c>
+      <c r="G35" s="15">
+        <v>894616</v>
+      </c>
+      <c r="H35" s="15">
+        <v>846343</v>
+      </c>
+      <c r="I35" s="15">
+        <v>791346</v>
+      </c>
+      <c r="J35" s="15">
         <v>789886</v>
       </c>
-      <c r="F35" s="15">
+      <c r="K35" s="15">
         <v>776700</v>
       </c>
-      <c r="G35" s="15">
+      <c r="L35" s="15">
         <v>845809</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>1029226</v>
       </c>
-      <c r="I35" s="15">
+      <c r="N35" s="15">
         <v>1014260</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1391,8 +1811,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1401,8 +1826,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1411,10 +1841,15 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1433,8 +1868,23 @@
       <c r="I39" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1443,174 +1893,284 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
+        <v>94806</v>
+      </c>
+      <c r="F41" s="9">
+        <v>183689</v>
+      </c>
+      <c r="G41" s="9">
+        <v>106780</v>
+      </c>
+      <c r="H41" s="9">
+        <v>113930</v>
+      </c>
+      <c r="I41" s="9">
+        <v>-4928</v>
+      </c>
+      <c r="J41" s="9">
         <v>73133</v>
       </c>
-      <c r="F41" s="9">
+      <c r="K41" s="9">
         <v>276447</v>
       </c>
-      <c r="G41" s="9">
+      <c r="L41" s="9">
         <v>256455</v>
       </c>
-      <c r="H41" s="9">
+      <c r="M41" s="9">
         <v>52116</v>
       </c>
-      <c r="I41" s="9">
+      <c r="N41" s="9">
         <v>75191</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
+        <v>8308</v>
+      </c>
+      <c r="F42" s="11">
+        <v>6995</v>
+      </c>
+      <c r="G42" s="11">
+        <v>14538</v>
+      </c>
+      <c r="H42" s="11">
+        <v>6199</v>
+      </c>
+      <c r="I42" s="11">
+        <v>20053</v>
+      </c>
+      <c r="J42" s="11">
         <v>9391</v>
       </c>
-      <c r="F42" s="11">
+      <c r="K42" s="11">
         <v>12772</v>
       </c>
-      <c r="G42" s="11">
+      <c r="L42" s="11">
         <v>63</v>
       </c>
-      <c r="H42" s="11">
+      <c r="M42" s="11">
         <v>3856</v>
       </c>
-      <c r="I42" s="11">
+      <c r="N42" s="11">
         <v>7337</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>134408</v>
+      </c>
+      <c r="F43" s="9">
+        <v>-16973</v>
+      </c>
+      <c r="G43" s="9">
+        <v>135470</v>
+      </c>
+      <c r="H43" s="9">
+        <v>135750</v>
+      </c>
+      <c r="I43" s="9">
+        <v>257287</v>
+      </c>
+      <c r="J43" s="9">
         <v>202635</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>38277</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>215143</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>166229</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>100639</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>17183</v>
+      </c>
+      <c r="F44" s="11">
+        <v>8004</v>
+      </c>
+      <c r="G44" s="11">
+        <v>17146</v>
+      </c>
+      <c r="H44" s="11">
+        <v>19559</v>
+      </c>
+      <c r="I44" s="11">
+        <v>5299</v>
+      </c>
+      <c r="J44" s="11">
         <v>59316</v>
       </c>
-      <c r="F44" s="11">
+      <c r="K44" s="11">
         <v>84268</v>
       </c>
-      <c r="G44" s="11">
+      <c r="L44" s="11">
         <v>20725</v>
       </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
+        <v>532</v>
+      </c>
+      <c r="F45" s="9">
+        <v>3363</v>
+      </c>
+      <c r="G45" s="9">
+        <v>4409</v>
+      </c>
+      <c r="H45" s="9">
+        <v>5334</v>
+      </c>
+      <c r="I45" s="9">
+        <v>2581</v>
+      </c>
+      <c r="J45" s="9">
         <v>8135</v>
       </c>
-      <c r="F45" s="9">
+      <c r="K45" s="9">
         <v>7793</v>
       </c>
-      <c r="G45" s="9">
+      <c r="L45" s="9">
         <v>5302</v>
       </c>
-      <c r="H45" s="9">
+      <c r="M45" s="9">
         <v>4708</v>
       </c>
-      <c r="I45" s="9">
+      <c r="N45" s="9">
         <v>1378</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
+        <v>255237</v>
+      </c>
+      <c r="F47" s="15">
+        <v>185078</v>
+      </c>
+      <c r="G47" s="15">
+        <v>278343</v>
+      </c>
+      <c r="H47" s="15">
+        <v>280772</v>
+      </c>
+      <c r="I47" s="15">
+        <v>280292</v>
+      </c>
+      <c r="J47" s="15">
         <v>352610</v>
       </c>
-      <c r="F47" s="15">
+      <c r="K47" s="15">
         <v>419557</v>
       </c>
-      <c r="G47" s="15">
+      <c r="L47" s="15">
         <v>497688</v>
       </c>
-      <c r="H47" s="15">
+      <c r="M47" s="15">
         <v>226909</v>
       </c>
-      <c r="I47" s="15">
+      <c r="N47" s="15">
         <v>184545</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1619,8 +2179,13 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1629,8 +2194,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1639,10 +2209,15 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1661,8 +2236,23 @@
       <c r="I51" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1671,174 +2261,284 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>97732</v>
+      </c>
+      <c r="F53" s="9">
+        <v>256761</v>
+      </c>
+      <c r="G53" s="9">
+        <v>134201</v>
+      </c>
+      <c r="H53" s="9">
+        <v>138181</v>
+      </c>
+      <c r="I53" s="9">
+        <v>-28906</v>
+      </c>
+      <c r="J53" s="9">
         <v>73100</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>358225</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>149900</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>96103</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>217947</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>5922</v>
+      </c>
+      <c r="F54" s="11">
+        <v>10128</v>
+      </c>
+      <c r="G54" s="11">
+        <v>12154</v>
+      </c>
+      <c r="H54" s="11">
+        <v>8403</v>
+      </c>
+      <c r="I54" s="11">
+        <v>5175</v>
+      </c>
+      <c r="J54" s="11">
         <v>6864</v>
       </c>
-      <c r="F54" s="11">
+      <c r="K54" s="11">
         <v>8715</v>
       </c>
-      <c r="G54" s="11">
+      <c r="L54" s="11">
         <v>7152</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>6407</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>10708</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>260928</v>
+      </c>
+      <c r="F55" s="9">
+        <v>15126</v>
+      </c>
+      <c r="G55" s="9">
+        <v>-41751</v>
+      </c>
+      <c r="H55" s="9">
+        <v>165168</v>
+      </c>
+      <c r="I55" s="9">
+        <v>297205</v>
+      </c>
+      <c r="J55" s="9">
         <v>258600</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>-42789</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>146430</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>118400</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>183900</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>31142</v>
+      </c>
+      <c r="F56" s="11">
+        <v>20408</v>
+      </c>
+      <c r="G56" s="11">
+        <v>17163</v>
+      </c>
+      <c r="H56" s="11">
+        <v>19169</v>
+      </c>
+      <c r="I56" s="11">
+        <v>5631</v>
+      </c>
+      <c r="J56" s="11">
         <v>19593</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>21845</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>5435</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>17369</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>22928</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>6657</v>
+      </c>
+      <c r="F57" s="9">
+        <v>7125</v>
+      </c>
+      <c r="G57" s="9">
+        <v>4847</v>
+      </c>
+      <c r="H57" s="9">
+        <v>4848</v>
+      </c>
+      <c r="I57" s="9">
+        <v>2647</v>
+      </c>
+      <c r="J57" s="9">
         <v>7639</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>4452</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>5354</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>3599</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>6124</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
+        <v>402381</v>
+      </c>
+      <c r="F59" s="15">
+        <v>309548</v>
+      </c>
+      <c r="G59" s="15">
+        <v>126614</v>
+      </c>
+      <c r="H59" s="15">
+        <v>335769</v>
+      </c>
+      <c r="I59" s="15">
+        <v>281752</v>
+      </c>
+      <c r="J59" s="15">
         <v>365796</v>
       </c>
-      <c r="F59" s="15">
+      <c r="K59" s="15">
         <v>350448</v>
       </c>
-      <c r="G59" s="15">
+      <c r="L59" s="15">
         <v>314271</v>
       </c>
-      <c r="H59" s="15">
+      <c r="M59" s="15">
         <v>241878</v>
       </c>
-      <c r="I59" s="15">
+      <c r="N59" s="15">
         <v>441607</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1847,8 +2547,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1857,8 +2562,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1867,10 +2577,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1889,8 +2604,23 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1899,174 +2629,284 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>50</v>
+      </c>
+      <c r="F65" s="9">
+        <v>379174</v>
+      </c>
+      <c r="G65" s="9">
+        <v>351754</v>
+      </c>
+      <c r="H65" s="9">
+        <v>327503</v>
+      </c>
+      <c r="I65" s="9">
+        <v>351481</v>
+      </c>
+      <c r="J65" s="9">
         <v>351514</v>
       </c>
-      <c r="F65" s="9">
+      <c r="K65" s="9">
         <v>269736</v>
       </c>
-      <c r="G65" s="9">
+      <c r="L65" s="9">
         <v>376291</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>332307</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>189551</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>3218</v>
+      </c>
+      <c r="F66" s="11">
+        <v>85</v>
+      </c>
+      <c r="G66" s="11">
+        <v>2469</v>
+      </c>
+      <c r="H66" s="11">
+        <v>265</v>
+      </c>
+      <c r="I66" s="11">
+        <v>15143</v>
+      </c>
+      <c r="J66" s="11">
         <v>17670</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>21727</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>14638</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>12087</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>8716</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>997709</v>
+      </c>
+      <c r="F67" s="9">
+        <v>513413</v>
+      </c>
+      <c r="G67" s="9">
+        <v>690635</v>
+      </c>
+      <c r="H67" s="9">
+        <v>461214</v>
+      </c>
+      <c r="I67" s="9">
+        <v>421296</v>
+      </c>
+      <c r="J67" s="9">
         <v>365331</v>
       </c>
-      <c r="F67" s="9">
+      <c r="K67" s="9">
         <v>446397</v>
       </c>
-      <c r="G67" s="9">
+      <c r="L67" s="9">
         <v>515110</v>
       </c>
-      <c r="H67" s="9">
+      <c r="M67" s="9">
         <v>562939</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>477678</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>12420</v>
+      </c>
+      <c r="F68" s="11">
+        <v>17</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0</v>
+      </c>
+      <c r="H68" s="11">
+        <v>390</v>
+      </c>
+      <c r="I68" s="11">
+        <v>58</v>
+      </c>
+      <c r="J68" s="11">
         <v>39781</v>
       </c>
-      <c r="F68" s="11">
+      <c r="K68" s="11">
         <v>102204</v>
       </c>
-      <c r="G68" s="11">
+      <c r="L68" s="11">
         <v>117494</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>100125</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>77197</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>5689</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1927</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1488</v>
+      </c>
+      <c r="H69" s="9">
+        <v>1974</v>
+      </c>
+      <c r="I69" s="9">
+        <v>1908</v>
+      </c>
+      <c r="J69" s="9">
         <v>2404</v>
       </c>
-      <c r="F69" s="9">
+      <c r="K69" s="9">
         <v>5745</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>5693</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>6802</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>2056</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
+        <v>1019086</v>
+      </c>
+      <c r="F71" s="15">
+        <v>894616</v>
+      </c>
+      <c r="G71" s="15">
+        <v>1046346</v>
+      </c>
+      <c r="H71" s="15">
+        <v>791346</v>
+      </c>
+      <c r="I71" s="15">
+        <v>789886</v>
+      </c>
+      <c r="J71" s="15">
         <v>776700</v>
       </c>
-      <c r="F71" s="15">
+      <c r="K71" s="15">
         <v>845809</v>
       </c>
-      <c r="G71" s="15">
+      <c r="L71" s="15">
         <v>1029226</v>
       </c>
-      <c r="H71" s="15">
+      <c r="M71" s="15">
         <v>1014260</v>
       </c>
-      <c r="I71" s="15">
+      <c r="N71" s="15">
         <v>755198</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2075,8 +2915,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2085,8 +2930,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2095,10 +2945,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2117,8 +2972,23 @@
       <c r="I75" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2127,174 +2997,284 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>69</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1</v>
+      </c>
+      <c r="G77" s="9">
+        <v>20573</v>
+      </c>
+      <c r="H77" s="9">
+        <v>20432</v>
+      </c>
+      <c r="I77" s="9">
+        <v>21755</v>
+      </c>
+      <c r="J77" s="9">
         <v>20476</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>40077</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>29415</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>47268</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>43942</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>719</v>
+      </c>
+      <c r="F78" s="11">
+        <v>4851</v>
+      </c>
+      <c r="G78" s="11">
+        <v>161</v>
+      </c>
+      <c r="H78" s="11">
+        <v>5235</v>
+      </c>
+      <c r="I78" s="11">
+        <v>705</v>
+      </c>
+      <c r="J78" s="11">
         <v>42586</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>49849</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>61029</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>41119</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>35859</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
+        <v>71436</v>
+      </c>
+      <c r="F79" s="9">
+        <v>67264</v>
+      </c>
+      <c r="G79" s="9">
+        <v>40873</v>
+      </c>
+      <c r="H79" s="9">
+        <v>48558</v>
+      </c>
+      <c r="I79" s="9">
+        <v>58961</v>
+      </c>
+      <c r="J79" s="9">
         <v>78848</v>
       </c>
-      <c r="F79" s="9">
+      <c r="K79" s="9">
         <v>67750</v>
       </c>
-      <c r="G79" s="9">
+      <c r="L79" s="9">
         <v>119196</v>
       </c>
-      <c r="H79" s="9">
+      <c r="M79" s="9">
         <v>182743</v>
       </c>
-      <c r="I79" s="9">
+      <c r="N79" s="9">
         <v>264493</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
+        <v>7377</v>
+      </c>
+      <c r="F80" s="11">
+        <v>3475</v>
+      </c>
+      <c r="G80" s="11">
+        <v>5</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11">
+        <v>197</v>
+      </c>
+      <c r="J80" s="11">
         <v>75</v>
       </c>
-      <c r="F80" s="11">
+      <c r="K80" s="11">
         <v>51317</v>
       </c>
-      <c r="G80" s="11">
+      <c r="L80" s="11">
         <v>131844</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>151565</v>
       </c>
-      <c r="I80" s="11">
+      <c r="N80" s="11">
         <v>129159</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
+        <v>7215</v>
+      </c>
+      <c r="F81" s="9">
+        <v>4327</v>
+      </c>
+      <c r="G81" s="9">
+        <v>2980</v>
+      </c>
+      <c r="H81" s="9">
+        <v>5248</v>
+      </c>
+      <c r="I81" s="9">
+        <v>7255</v>
+      </c>
+      <c r="J81" s="9">
         <v>7832</v>
       </c>
-      <c r="F81" s="9">
+      <c r="K81" s="9">
         <v>15107</v>
       </c>
-      <c r="G81" s="9">
+      <c r="L81" s="9">
         <v>35437</v>
       </c>
-      <c r="H81" s="9">
+      <c r="M81" s="9">
         <v>39899</v>
       </c>
-      <c r="I81" s="9">
+      <c r="N81" s="9">
         <v>48677</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
+        <v>86816</v>
+      </c>
+      <c r="F83" s="15">
+        <v>79918</v>
+      </c>
+      <c r="G83" s="15">
+        <v>64592</v>
+      </c>
+      <c r="H83" s="15">
+        <v>79473</v>
+      </c>
+      <c r="I83" s="15">
+        <v>88873</v>
+      </c>
+      <c r="J83" s="15">
         <v>149817</v>
       </c>
-      <c r="F83" s="15">
+      <c r="K83" s="15">
         <v>224100</v>
       </c>
-      <c r="G83" s="15">
+      <c r="L83" s="15">
         <v>376921</v>
       </c>
-      <c r="H83" s="15">
+      <c r="M83" s="15">
         <v>462594</v>
       </c>
-      <c r="I83" s="15">
+      <c r="N83" s="15">
         <v>522130</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2303,8 +3283,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2313,8 +3298,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2323,10 +3313,15 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2345,8 +3340,23 @@
       <c r="I87" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2355,174 +3365,284 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
+        <v>3388</v>
+      </c>
+      <c r="F89" s="9">
+        <v>15252</v>
+      </c>
+      <c r="G89" s="9">
+        <v>-3367</v>
+      </c>
+      <c r="H89" s="9">
+        <v>8228</v>
+      </c>
+      <c r="I89" s="9">
+        <v>-1783</v>
+      </c>
+      <c r="J89" s="9">
         <v>28974</v>
       </c>
-      <c r="F89" s="9">
+      <c r="K89" s="9">
         <v>22696</v>
       </c>
-      <c r="G89" s="9">
+      <c r="L89" s="9">
         <v>36504</v>
       </c>
-      <c r="H89" s="9">
+      <c r="M89" s="9">
         <v>9135</v>
       </c>
-      <c r="I89" s="9">
+      <c r="N89" s="9">
         <v>12110</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>15611</v>
+      </c>
+      <c r="F90" s="11">
+        <v>14107</v>
+      </c>
+      <c r="G90" s="11">
+        <v>33142</v>
+      </c>
+      <c r="H90" s="11">
+        <v>15003</v>
+      </c>
+      <c r="I90" s="11">
+        <v>57084</v>
+      </c>
+      <c r="J90" s="11">
         <v>26150</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>35888</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>184</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>13111</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>27580</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>27162</v>
+      </c>
+      <c r="F91" s="9">
+        <v>7255</v>
+      </c>
+      <c r="G91" s="9">
+        <v>42009</v>
+      </c>
+      <c r="H91" s="9">
+        <v>27288</v>
+      </c>
+      <c r="I91" s="9">
+        <v>46325</v>
+      </c>
+      <c r="J91" s="9">
         <v>27003</v>
       </c>
-      <c r="F91" s="9">
+      <c r="K91" s="9">
         <v>75215</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>99397</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>120124</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>69835</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>5168</v>
+      </c>
+      <c r="F92" s="11">
+        <v>2447</v>
+      </c>
+      <c r="G92" s="11">
+        <v>8844</v>
+      </c>
+      <c r="H92" s="11">
+        <v>9670</v>
+      </c>
+      <c r="I92" s="11">
+        <v>-335</v>
+      </c>
+      <c r="J92" s="11">
         <v>76518</v>
       </c>
-      <c r="F92" s="11">
+      <c r="K92" s="11">
         <v>108706</v>
       </c>
-      <c r="G92" s="11">
+      <c r="L92" s="11">
         <v>26732</v>
       </c>
-      <c r="H92" s="11">
-        <v>0</v>
-      </c>
-      <c r="I92" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M92" s="11">
+        <v>0</v>
+      </c>
+      <c r="N92" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
+        <v>1485</v>
+      </c>
+      <c r="F93" s="9">
+        <v>9498</v>
+      </c>
+      <c r="G93" s="9">
+        <v>17624</v>
+      </c>
+      <c r="H93" s="9">
+        <v>19737</v>
+      </c>
+      <c r="I93" s="9">
+        <v>10061</v>
+      </c>
+      <c r="J93" s="9">
         <v>42583</v>
       </c>
-      <c r="F93" s="9">
+      <c r="K93" s="9">
         <v>47359</v>
       </c>
-      <c r="G93" s="9">
+      <c r="L93" s="9">
         <v>38831</v>
       </c>
-      <c r="H93" s="9">
+      <c r="M93" s="9">
         <v>34446</v>
       </c>
-      <c r="I93" s="9">
+      <c r="N93" s="9">
         <v>10507</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>52814</v>
+      </c>
+      <c r="F95" s="15">
+        <v>48559</v>
+      </c>
+      <c r="G95" s="15">
+        <v>98252</v>
+      </c>
+      <c r="H95" s="15">
+        <v>79926</v>
+      </c>
+      <c r="I95" s="15">
+        <v>111352</v>
+      </c>
+      <c r="J95" s="15">
         <v>201228</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>289864</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>201648</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>176816</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>120032</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2531,8 +3651,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2541,8 +3666,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2551,10 +3681,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2573,8 +3708,23 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2583,174 +3733,284 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>3456</v>
+      </c>
+      <c r="F101" s="9">
+        <v>16280</v>
+      </c>
+      <c r="G101" s="9">
+        <v>8710</v>
+      </c>
+      <c r="H101" s="9">
+        <v>6905</v>
+      </c>
+      <c r="I101" s="9">
+        <v>-504</v>
+      </c>
+      <c r="J101" s="9">
         <v>9373</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>33358</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>18651</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>12461</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>30481</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>11479</v>
+      </c>
+      <c r="F102" s="11">
+        <v>18797</v>
+      </c>
+      <c r="G102" s="11">
+        <v>28068</v>
+      </c>
+      <c r="H102" s="11">
+        <v>19533</v>
+      </c>
+      <c r="I102" s="11">
+        <v>15203</v>
+      </c>
+      <c r="J102" s="11">
         <v>18887</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>24698</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>20094</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>18371</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>33392</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>30686</v>
+      </c>
+      <c r="F103" s="9">
+        <v>12046</v>
+      </c>
+      <c r="G103" s="9">
+        <v>23036</v>
+      </c>
+      <c r="H103" s="9">
+        <v>16885</v>
+      </c>
+      <c r="I103" s="9">
+        <v>26438</v>
+      </c>
+      <c r="J103" s="9">
         <v>38101</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>23769</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>35850</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>38374</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>87067</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>9071</v>
+      </c>
+      <c r="F104" s="11">
+        <v>5917</v>
+      </c>
+      <c r="G104" s="11">
+        <v>8848</v>
+      </c>
+      <c r="H104" s="11">
+        <v>9473</v>
+      </c>
+      <c r="I104" s="11">
+        <v>-213</v>
+      </c>
+      <c r="J104" s="11">
         <v>25276</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>28179</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>7011</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>22406</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>29576</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>5020</v>
+      </c>
+      <c r="F105" s="9">
+        <v>10845</v>
+      </c>
+      <c r="G105" s="9">
+        <v>14709</v>
+      </c>
+      <c r="H105" s="9">
+        <v>17730</v>
+      </c>
+      <c r="I105" s="9">
+        <v>9484</v>
+      </c>
+      <c r="J105" s="9">
         <v>35308</v>
       </c>
-      <c r="F105" s="9">
+      <c r="K105" s="9">
         <v>27029</v>
       </c>
-      <c r="G105" s="9">
+      <c r="L105" s="9">
         <v>34369</v>
       </c>
-      <c r="H105" s="9">
+      <c r="M105" s="9">
         <v>25668</v>
       </c>
-      <c r="I105" s="9">
+      <c r="N105" s="9">
         <v>44043</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H106" s="11">
+        <v>0</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>59712</v>
+      </c>
+      <c r="F107" s="15">
+        <v>63885</v>
+      </c>
+      <c r="G107" s="15">
+        <v>83371</v>
+      </c>
+      <c r="H107" s="15">
+        <v>70526</v>
+      </c>
+      <c r="I107" s="15">
+        <v>50408</v>
+      </c>
+      <c r="J107" s="15">
         <v>126945</v>
       </c>
-      <c r="F107" s="15">
+      <c r="K107" s="15">
         <v>137033</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>115975</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>117280</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>224559</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2759,8 +4019,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2769,8 +4034,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2779,10 +4049,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2801,8 +4076,23 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2811,174 +4101,284 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
+        <v>1</v>
+      </c>
+      <c r="F113" s="9">
+        <v>20573</v>
+      </c>
+      <c r="G113" s="9">
+        <v>20432</v>
+      </c>
+      <c r="H113" s="9">
+        <v>21755</v>
+      </c>
+      <c r="I113" s="9">
+        <v>20476</v>
+      </c>
+      <c r="J113" s="9">
         <v>40077</v>
       </c>
-      <c r="F113" s="9">
+      <c r="K113" s="9">
         <v>29415</v>
       </c>
-      <c r="G113" s="9">
+      <c r="L113" s="9">
         <v>47268</v>
       </c>
-      <c r="H113" s="9">
+      <c r="M113" s="9">
         <v>43942</v>
       </c>
-      <c r="I113" s="9">
+      <c r="N113" s="9">
         <v>25571</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>4851</v>
+      </c>
+      <c r="F114" s="11">
+        <v>161</v>
+      </c>
+      <c r="G114" s="11">
+        <v>5235</v>
+      </c>
+      <c r="H114" s="11">
+        <v>705</v>
+      </c>
+      <c r="I114" s="11">
+        <v>42586</v>
+      </c>
+      <c r="J114" s="11">
         <v>49849</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>61039</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>41119</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>35859</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>30057</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>67264</v>
+      </c>
+      <c r="F115" s="9">
+        <v>40873</v>
+      </c>
+      <c r="G115" s="9">
+        <v>48558</v>
+      </c>
+      <c r="H115" s="9">
+        <v>58961</v>
+      </c>
+      <c r="I115" s="9">
+        <v>78848</v>
+      </c>
+      <c r="J115" s="9">
         <v>67750</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>119196</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>182743</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>264493</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>247261</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>3475</v>
+      </c>
+      <c r="F116" s="11">
+        <v>5</v>
+      </c>
+      <c r="G116" s="11">
+        <v>0</v>
+      </c>
+      <c r="H116" s="11">
+        <v>197</v>
+      </c>
+      <c r="I116" s="11">
+        <v>75</v>
+      </c>
+      <c r="J116" s="11">
         <v>51317</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>131844</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>151565</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>129159</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>99583</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
+        <v>4327</v>
+      </c>
+      <c r="F117" s="9">
+        <v>2980</v>
+      </c>
+      <c r="G117" s="9">
+        <v>5248</v>
+      </c>
+      <c r="H117" s="9">
+        <v>7255</v>
+      </c>
+      <c r="I117" s="9">
+        <v>7832</v>
+      </c>
+      <c r="J117" s="9">
         <v>15107</v>
       </c>
-      <c r="F117" s="9">
+      <c r="K117" s="9">
         <v>35437</v>
       </c>
-      <c r="G117" s="9">
+      <c r="L117" s="9">
         <v>39899</v>
       </c>
-      <c r="H117" s="9">
+      <c r="M117" s="9">
         <v>48677</v>
       </c>
-      <c r="I117" s="9">
+      <c r="N117" s="9">
         <v>15141</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H118" s="11">
+        <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
+        <v>79918</v>
+      </c>
+      <c r="F119" s="15">
+        <v>64592</v>
+      </c>
+      <c r="G119" s="15">
+        <v>79473</v>
+      </c>
+      <c r="H119" s="15">
+        <v>88873</v>
+      </c>
+      <c r="I119" s="15">
+        <v>149817</v>
+      </c>
+      <c r="J119" s="15">
         <v>224100</v>
       </c>
-      <c r="F119" s="15">
+      <c r="K119" s="15">
         <v>376931</v>
       </c>
-      <c r="G119" s="15">
+      <c r="L119" s="15">
         <v>462594</v>
       </c>
-      <c r="H119" s="15">
+      <c r="M119" s="15">
         <v>522130</v>
       </c>
-      <c r="I119" s="15">
+      <c r="N119" s="15">
         <v>417613</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2987,8 +4387,13 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2997,8 +4402,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3007,10 +4417,15 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3029,8 +4444,23 @@
       <c r="I123" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3039,128 +4469,208 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9">
+      <c r="E125" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125" s="9">
+        <v>20000</v>
+      </c>
+      <c r="G125" s="9">
+        <v>54257</v>
+      </c>
+      <c r="H125" s="9">
+        <v>58086</v>
+      </c>
+      <c r="I125" s="9">
+        <v>66427</v>
+      </c>
+      <c r="J125" s="9">
         <v>58256</v>
       </c>
-      <c r="F125" s="9">
+      <c r="K125" s="9">
         <v>114013</v>
       </c>
-      <c r="G125" s="9">
+      <c r="L125" s="9">
         <v>109051</v>
       </c>
-      <c r="H125" s="9">
+      <c r="M125" s="9">
         <v>125616</v>
       </c>
-      <c r="I125" s="9">
+      <c r="N125" s="9">
         <v>132233</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>864183</v>
+      </c>
+      <c r="F126" s="11">
+        <v>1507458</v>
+      </c>
+      <c r="G126" s="11">
+        <v>1894118</v>
+      </c>
+      <c r="H126" s="11">
+        <v>2120292</v>
+      </c>
+      <c r="I126" s="11">
+        <v>2660377</v>
+      </c>
+      <c r="J126" s="11">
         <v>2812256</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>2821109</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>2808901</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>2809059</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>2966741</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
+        <v>63542</v>
+      </c>
+      <c r="F127" s="9">
+        <v>67418</v>
+      </c>
+      <c r="G127" s="9">
+        <v>79610</v>
+      </c>
+      <c r="H127" s="9">
+        <v>98970</v>
+      </c>
+      <c r="I127" s="9">
+        <v>127839</v>
+      </c>
+      <c r="J127" s="9">
         <v>187156</v>
       </c>
-      <c r="F127" s="9">
+      <c r="K127" s="9">
         <v>185448</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>267018</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>354765</v>
       </c>
-      <c r="I127" s="9">
+      <c r="N127" s="9">
         <v>469843</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>32</v>
+      <c r="E128" s="11">
+        <v>279644</v>
+      </c>
+      <c r="F128" s="11">
+        <v>279791</v>
       </c>
       <c r="G128" s="11">
+        <v>294118</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L128" s="11">
         <v>1290008</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>1289981</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>1289978</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>610716</v>
+      </c>
+      <c r="F129" s="9">
+        <v>760591</v>
+      </c>
+      <c r="G129" s="9">
+        <v>1546445</v>
+      </c>
+      <c r="H129" s="9">
+        <v>3526882</v>
+      </c>
+      <c r="I129" s="9">
+        <v>3675279</v>
+      </c>
+      <c r="J129" s="9">
         <v>4104822</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>6284110</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>6168320</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>7008431</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>7156278</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3169,8 +4679,13 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3179,8 +4694,13 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3189,10 +4709,15 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3211,8 +4736,23 @@
       <c r="I133" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M133" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N133" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3221,128 +4761,208 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>35736</v>
+      </c>
+      <c r="F135" s="9">
+        <v>83032</v>
+      </c>
+      <c r="G135" s="9">
+        <v>-31532</v>
+      </c>
+      <c r="H135" s="9">
+        <v>72220</v>
+      </c>
+      <c r="I135" s="9">
+        <v>361810</v>
+      </c>
+      <c r="J135" s="9">
         <v>396182</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>82099</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>142341</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>175282</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>161057</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>1879032</v>
+      </c>
+      <c r="F136" s="11">
+        <v>2016726</v>
+      </c>
+      <c r="G136" s="11">
+        <v>2279681</v>
+      </c>
+      <c r="H136" s="11">
+        <v>2420229</v>
+      </c>
+      <c r="I136" s="11">
+        <v>2846656</v>
+      </c>
+      <c r="J136" s="11">
         <v>2784581</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>2809897</v>
       </c>
-      <c r="G136" s="11">
+      <c r="L136" s="11">
         <v>2920635</v>
       </c>
-      <c r="H136" s="11">
+      <c r="M136" s="11">
         <v>3400156</v>
       </c>
-      <c r="I136" s="11">
+      <c r="N136" s="11">
         <v>3759030</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>202086</v>
+      </c>
+      <c r="F137" s="9">
+        <v>-427444</v>
+      </c>
+      <c r="G137" s="9">
+        <v>310098</v>
+      </c>
+      <c r="H137" s="9">
+        <v>201017</v>
+      </c>
+      <c r="I137" s="9">
+        <v>180052</v>
+      </c>
+      <c r="J137" s="9">
         <v>133259</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>1965018</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>462004</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>722642</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>693916</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>300762</v>
+      </c>
+      <c r="F138" s="11">
+        <v>305722</v>
+      </c>
+      <c r="G138" s="11">
+        <v>515805</v>
+      </c>
+      <c r="H138" s="11">
+        <v>494402</v>
+      </c>
+      <c r="I138" s="11">
+        <v>-63219</v>
+      </c>
+      <c r="J138" s="11">
         <v>1290006</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>1290003</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>1289843</v>
       </c>
-      <c r="H138" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I138" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M138" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
+        <v>2791353</v>
+      </c>
+      <c r="F139" s="9">
+        <v>2824264</v>
+      </c>
+      <c r="G139" s="9">
+        <v>3997278</v>
+      </c>
+      <c r="H139" s="9">
+        <v>3700225</v>
+      </c>
+      <c r="I139" s="9">
+        <v>3898102</v>
+      </c>
+      <c r="J139" s="9">
         <v>5234542</v>
       </c>
-      <c r="F139" s="9">
+      <c r="K139" s="9">
         <v>6077120</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>7323840</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>7316483</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>7624819</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3351,8 +4971,13 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3361,8 +4986,13 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3371,10 +5001,15 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3393,8 +5028,23 @@
       <c r="I143" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3403,128 +5053,208 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
+        <v>35362</v>
+      </c>
+      <c r="F145" s="9">
+        <v>63405</v>
+      </c>
+      <c r="G145" s="9">
+        <v>64903</v>
+      </c>
+      <c r="H145" s="9">
+        <v>49971</v>
+      </c>
+      <c r="I145" s="9">
+        <v>17436</v>
+      </c>
+      <c r="J145" s="9">
         <v>128222</v>
       </c>
-      <c r="F145" s="9">
+      <c r="K145" s="9">
         <v>93120</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>124423</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>129663</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>139855</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
+        <v>1938365</v>
+      </c>
+      <c r="F146" s="11">
+        <v>1855944</v>
+      </c>
+      <c r="G146" s="11">
+        <v>2309363</v>
+      </c>
+      <c r="H146" s="11">
+        <v>2324527</v>
+      </c>
+      <c r="I146" s="11">
+        <v>2937778</v>
+      </c>
+      <c r="J146" s="11">
         <v>2751603</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>2833964</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>2809564</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>2867333</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>3118416</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>117603</v>
+      </c>
+      <c r="F147" s="9">
+        <v>796377</v>
+      </c>
+      <c r="G147" s="9">
+        <v>-551747</v>
+      </c>
+      <c r="H147" s="9">
+        <v>102229</v>
+      </c>
+      <c r="I147" s="9">
+        <v>88955</v>
+      </c>
+      <c r="J147" s="9">
         <v>147336</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>-555493</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>244827</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>324105</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>473448</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
+        <v>291279</v>
+      </c>
+      <c r="F148" s="11">
+        <v>289935</v>
+      </c>
+      <c r="G148" s="11">
+        <v>515528</v>
+      </c>
+      <c r="H148" s="11">
+        <v>494183</v>
+      </c>
+      <c r="I148" s="11">
+        <v>-37826</v>
+      </c>
+      <c r="J148" s="11">
         <v>1290053</v>
       </c>
-      <c r="F148" s="11">
+      <c r="K148" s="11">
         <v>1289952</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>1289972</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>1289999</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>1289951</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
+        <v>754093</v>
+      </c>
+      <c r="F149" s="9">
+        <v>1522105</v>
+      </c>
+      <c r="G149" s="9">
+        <v>3034661</v>
+      </c>
+      <c r="H149" s="9">
+        <v>3657178</v>
+      </c>
+      <c r="I149" s="9">
+        <v>3582924</v>
+      </c>
+      <c r="J149" s="9">
         <v>4622071</v>
       </c>
-      <c r="F149" s="9">
+      <c r="K149" s="9">
         <v>6071204</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>6419313</v>
       </c>
-      <c r="H149" s="9">
+      <c r="M149" s="9">
         <v>7131981</v>
       </c>
-      <c r="I149" s="9">
+      <c r="N149" s="9">
         <v>7191868</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3533,8 +5263,13 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3543,8 +5278,13 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3553,10 +5293,15 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3575,8 +5320,23 @@
       <c r="I153" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3585,128 +5345,208 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D155" s="9"/>
-      <c r="E155" s="9">
+      <c r="E155" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G155" s="9">
+        <v>58086</v>
+      </c>
+      <c r="H155" s="9">
+        <v>66427</v>
+      </c>
+      <c r="I155" s="9">
+        <v>58256</v>
+      </c>
+      <c r="J155" s="9">
         <v>114013</v>
       </c>
-      <c r="F155" s="9">
+      <c r="K155" s="9">
         <v>109051</v>
       </c>
-      <c r="G155" s="9">
+      <c r="L155" s="9">
         <v>125616</v>
       </c>
-      <c r="H155" s="9">
+      <c r="M155" s="9">
         <v>132233</v>
       </c>
-      <c r="I155" s="9">
+      <c r="N155" s="9">
         <v>134903</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D156" s="11"/>
-      <c r="E156" s="11">
+      <c r="E156" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156" s="11">
+        <v>2120292</v>
+      </c>
+      <c r="H156" s="11">
+        <v>2660377</v>
+      </c>
+      <c r="I156" s="11">
+        <v>2812256</v>
+      </c>
+      <c r="J156" s="11">
         <v>2821109</v>
       </c>
-      <c r="F156" s="11">
+      <c r="K156" s="11">
         <v>2809362</v>
       </c>
-      <c r="G156" s="11">
+      <c r="L156" s="11">
         <v>2809059</v>
       </c>
-      <c r="H156" s="11">
+      <c r="M156" s="11">
         <v>2966741</v>
       </c>
-      <c r="I156" s="11">
+      <c r="N156" s="11">
         <v>3448486</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9">
+      <c r="E157" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G157" s="9">
+        <v>70309</v>
+      </c>
+      <c r="H157" s="9">
+        <v>127839</v>
+      </c>
+      <c r="I157" s="9">
+        <v>187156</v>
+      </c>
+      <c r="J157" s="9">
         <v>185448</v>
       </c>
-      <c r="F157" s="9">
+      <c r="K157" s="9">
         <v>267018</v>
       </c>
-      <c r="G157" s="9">
+      <c r="L157" s="9">
         <v>354765</v>
       </c>
-      <c r="H157" s="9">
+      <c r="M157" s="9">
         <v>469843</v>
       </c>
-      <c r="I157" s="9">
+      <c r="N157" s="9">
         <v>517631</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="11">
+      <c r="E158" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H158" s="11">
+        <v>505128</v>
+      </c>
+      <c r="I158" s="11">
+        <v>1293103</v>
+      </c>
+      <c r="J158" s="11">
         <v>1289988</v>
       </c>
-      <c r="F158" s="11">
+      <c r="K158" s="11">
         <v>1290008</v>
       </c>
-      <c r="G158" s="11">
+      <c r="L158" s="11">
         <v>1289981</v>
       </c>
-      <c r="H158" s="11">
+      <c r="M158" s="11">
         <v>1289978</v>
       </c>
-      <c r="I158" s="11">
+      <c r="N158" s="11">
         <v>1289985</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D159" s="9"/>
-      <c r="E159" s="9">
+      <c r="E159" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G159" s="9">
+        <v>3526882</v>
+      </c>
+      <c r="H159" s="9">
+        <v>3675279</v>
+      </c>
+      <c r="I159" s="9">
+        <v>4104822</v>
+      </c>
+      <c r="J159" s="9">
         <v>6284110</v>
       </c>
-      <c r="F159" s="9">
+      <c r="K159" s="9">
         <v>6168320</v>
       </c>
-      <c r="G159" s="9">
+      <c r="L159" s="9">
         <v>7008431</v>
       </c>
-      <c r="H159" s="9">
+      <c r="M159" s="9">
         <v>7156278</v>
       </c>
-      <c r="I159" s="9">
+      <c r="N159" s="9">
         <v>7364300</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3715,8 +5555,13 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3725,8 +5570,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3735,10 +5585,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -3757,8 +5612,23 @@
       <c r="I163" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3767,10 +5637,15 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -3789,10 +5664,25 @@
       <c r="I165" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="9">
+        <v>0</v>
+      </c>
+      <c r="K165" s="9">
+        <v>0</v>
+      </c>
+      <c r="L165" s="9">
+        <v>0</v>
+      </c>
+      <c r="M165" s="9">
+        <v>0</v>
+      </c>
+      <c r="N165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -3811,10 +5701,25 @@
       <c r="I166" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J166" s="11">
+        <v>0</v>
+      </c>
+      <c r="K166" s="11">
+        <v>0</v>
+      </c>
+      <c r="L166" s="11">
+        <v>0</v>
+      </c>
+      <c r="M166" s="11">
+        <v>0</v>
+      </c>
+      <c r="N166" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -3833,10 +5738,25 @@
       <c r="I167" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="9">
+        <v>0</v>
+      </c>
+      <c r="K167" s="9">
+        <v>0</v>
+      </c>
+      <c r="L167" s="9">
+        <v>0</v>
+      </c>
+      <c r="M167" s="9">
+        <v>0</v>
+      </c>
+      <c r="N167" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -3855,98 +5775,173 @@
       <c r="I168" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="11">
+        <v>0</v>
+      </c>
+      <c r="K168" s="11">
+        <v>0</v>
+      </c>
+      <c r="L168" s="11">
+        <v>0</v>
+      </c>
+      <c r="M168" s="11">
+        <v>0</v>
+      </c>
+      <c r="N168" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
+        <v>66890</v>
+      </c>
+      <c r="F169" s="9">
+        <v>43867</v>
+      </c>
+      <c r="G169" s="9">
+        <v>127965</v>
+      </c>
+      <c r="H169" s="9">
+        <v>114722</v>
+      </c>
+      <c r="I169" s="9">
+        <v>61524</v>
+      </c>
+      <c r="J169" s="9">
         <v>89274</v>
       </c>
-      <c r="F169" s="9">
+      <c r="K169" s="9">
         <v>90700</v>
       </c>
-      <c r="G169" s="9">
+      <c r="L169" s="9">
         <v>85760</v>
       </c>
-      <c r="H169" s="9">
+      <c r="M169" s="9">
         <v>73391</v>
       </c>
-      <c r="I169" s="9">
+      <c r="N169" s="9">
         <v>108403</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
+        <v>100426</v>
+      </c>
+      <c r="F170" s="11">
+        <v>110543</v>
+      </c>
+      <c r="G170" s="11">
+        <v>2863</v>
+      </c>
+      <c r="H170" s="11">
+        <v>105356</v>
+      </c>
+      <c r="I170" s="11">
+        <v>156348</v>
+      </c>
+      <c r="J170" s="11">
         <v>150087</v>
       </c>
-      <c r="F170" s="11">
+      <c r="K170" s="11">
         <v>299023</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>186464</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>123015</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>447641</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9">
+        <v>7581</v>
+      </c>
+      <c r="F171" s="9">
+        <v>7575</v>
+      </c>
+      <c r="G171" s="9">
+        <v>7531</v>
+      </c>
+      <c r="H171" s="9">
+        <v>6868</v>
+      </c>
+      <c r="I171" s="9">
+        <v>6709</v>
+      </c>
+      <c r="J171" s="9">
         <v>6644</v>
       </c>
-      <c r="F171" s="9">
+      <c r="K171" s="9">
         <v>6580</v>
       </c>
-      <c r="G171" s="9">
+      <c r="L171" s="9">
         <v>7188</v>
       </c>
-      <c r="H171" s="9">
+      <c r="M171" s="9">
         <v>7519</v>
       </c>
-      <c r="I171" s="9">
+      <c r="N171" s="9">
         <v>25089</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
+        <v>35728</v>
+      </c>
+      <c r="F172" s="11">
+        <v>92091</v>
+      </c>
+      <c r="G172" s="11">
+        <v>146497</v>
+      </c>
+      <c r="H172" s="11">
+        <v>107284</v>
+      </c>
+      <c r="I172" s="11">
+        <v>156987</v>
+      </c>
+      <c r="J172" s="11">
         <v>117454</v>
       </c>
-      <c r="F172" s="11">
+      <c r="K172" s="11">
         <v>156331</v>
       </c>
-      <c r="G172" s="11">
+      <c r="L172" s="11">
         <v>136472</v>
       </c>
-      <c r="H172" s="11">
+      <c r="M172" s="11">
         <v>255087</v>
       </c>
-      <c r="I172" s="11">
+      <c r="N172" s="11">
         <v>218728</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -3965,52 +5960,97 @@
       <c r="I173" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="9">
+        <v>0</v>
+      </c>
+      <c r="K173" s="9">
+        <v>0</v>
+      </c>
+      <c r="L173" s="9">
+        <v>0</v>
+      </c>
+      <c r="M173" s="9">
+        <v>0</v>
+      </c>
+      <c r="N173" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
+        <v>53544</v>
+      </c>
+      <c r="F174" s="11">
+        <v>170131</v>
+      </c>
+      <c r="G174" s="11">
+        <v>-53224</v>
+      </c>
+      <c r="H174" s="11">
+        <v>115105</v>
+      </c>
+      <c r="I174" s="11">
+        <v>43008</v>
+      </c>
+      <c r="J174" s="11">
         <v>56719</v>
       </c>
-      <c r="F174" s="11">
+      <c r="K174" s="11">
         <v>142161</v>
       </c>
-      <c r="G174" s="11">
+      <c r="L174" s="11">
         <v>129770</v>
       </c>
-      <c r="H174" s="11">
+      <c r="M174" s="11">
         <v>194488</v>
       </c>
-      <c r="I174" s="11">
+      <c r="N174" s="11">
         <v>144685</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15">
+        <v>264169</v>
+      </c>
+      <c r="F175" s="15">
+        <v>424207</v>
+      </c>
+      <c r="G175" s="15">
+        <v>231632</v>
+      </c>
+      <c r="H175" s="15">
+        <v>449335</v>
+      </c>
+      <c r="I175" s="15">
+        <v>424576</v>
+      </c>
+      <c r="J175" s="15">
         <v>420178</v>
       </c>
-      <c r="F175" s="15">
+      <c r="K175" s="15">
         <v>694795</v>
       </c>
-      <c r="G175" s="15">
+      <c r="L175" s="15">
         <v>545654</v>
       </c>
-      <c r="H175" s="15">
+      <c r="M175" s="15">
         <v>653500</v>
       </c>
-      <c r="I175" s="15">
+      <c r="N175" s="15">
         <v>944546</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4019,8 +6059,13 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4029,8 +6074,13 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4039,10 +6089,15 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -4051,8 +6106,13 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4061,13 +6121,18 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -4075,13 +6140,18 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
@@ -4089,123 +6159,128 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>

--- a/database/industries/siman/sekhash/cost/quarterly.xlsx
+++ b/database/industries/siman/sekhash/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D316EBD1-6053-41F7-825B-E87202AC49F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9080E67-E2A7-4C95-ACEE-A79FB2584CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -746,12 +746,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -766,7 +766,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -815,7 +815,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -864,7 +864,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -901,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -916,155 +916,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>59712</v>
+        <v>63885</v>
       </c>
       <c r="F10" s="9">
-        <v>63885</v>
+        <v>83371</v>
       </c>
       <c r="G10" s="9">
-        <v>83371</v>
+        <v>70526</v>
       </c>
       <c r="H10" s="9">
-        <v>70526</v>
+        <v>50408</v>
       </c>
       <c r="I10" s="9">
-        <v>50408</v>
+        <v>126945</v>
       </c>
       <c r="J10" s="9">
-        <v>126945</v>
+        <v>137033</v>
       </c>
       <c r="K10" s="9">
-        <v>137033</v>
+        <v>115975</v>
       </c>
       <c r="L10" s="9">
-        <v>115975</v>
+        <v>117280</v>
       </c>
       <c r="M10" s="9">
-        <v>117280</v>
+        <v>224559</v>
       </c>
       <c r="N10" s="9">
-        <v>224559</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>138856</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>27174</v>
+        <v>20639</v>
       </c>
       <c r="F11" s="11">
-        <v>20639</v>
+        <v>18408</v>
       </c>
       <c r="G11" s="11">
-        <v>18408</v>
+        <v>23656</v>
       </c>
       <c r="H11" s="11">
-        <v>23656</v>
+        <v>26025</v>
       </c>
       <c r="I11" s="11">
-        <v>26025</v>
+        <v>31210</v>
       </c>
       <c r="J11" s="11">
-        <v>31210</v>
+        <v>55296</v>
       </c>
       <c r="K11" s="11">
-        <v>55296</v>
+        <v>17410</v>
       </c>
       <c r="L11" s="11">
-        <v>17410</v>
+        <v>56808</v>
       </c>
       <c r="M11" s="11">
-        <v>56808</v>
+        <v>41644</v>
       </c>
       <c r="N11" s="11">
-        <v>41644</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>264169</v>
+        <v>424207</v>
       </c>
       <c r="F12" s="9">
-        <v>424207</v>
+        <v>231632</v>
       </c>
       <c r="G12" s="9">
-        <v>231632</v>
+        <v>449335</v>
       </c>
       <c r="H12" s="9">
-        <v>449335</v>
+        <v>424576</v>
       </c>
       <c r="I12" s="9">
-        <v>424576</v>
+        <v>420178</v>
       </c>
       <c r="J12" s="9">
-        <v>420178</v>
+        <v>694795</v>
       </c>
       <c r="K12" s="9">
-        <v>694795</v>
+        <v>545654</v>
       </c>
       <c r="L12" s="9">
-        <v>545654</v>
+        <v>653500</v>
       </c>
       <c r="M12" s="9">
-        <v>653500</v>
+        <v>944546</v>
       </c>
       <c r="N12" s="9">
-        <v>944546</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>894557</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>351055</v>
+        <v>508731</v>
       </c>
       <c r="F13" s="13">
-        <v>508731</v>
+        <v>333411</v>
       </c>
       <c r="G13" s="13">
-        <v>333411</v>
+        <v>543517</v>
       </c>
       <c r="H13" s="13">
-        <v>543517</v>
+        <v>501009</v>
       </c>
       <c r="I13" s="13">
-        <v>501009</v>
+        <v>578333</v>
       </c>
       <c r="J13" s="13">
-        <v>578333</v>
+        <v>887124</v>
       </c>
       <c r="K13" s="13">
-        <v>887124</v>
+        <v>679039</v>
       </c>
       <c r="L13" s="13">
-        <v>679039</v>
+        <v>827588</v>
       </c>
       <c r="M13" s="13">
-        <v>827588</v>
+        <v>1210749</v>
       </c>
       <c r="N13" s="13">
-        <v>1210749</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1078923</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1101,81 +1101,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>351055</v>
+        <v>508731</v>
       </c>
       <c r="F15" s="13">
-        <v>508731</v>
+        <v>333411</v>
       </c>
       <c r="G15" s="13">
-        <v>333411</v>
+        <v>543517</v>
       </c>
       <c r="H15" s="13">
-        <v>543517</v>
+        <v>501009</v>
       </c>
       <c r="I15" s="13">
-        <v>501009</v>
+        <v>578333</v>
       </c>
       <c r="J15" s="13">
-        <v>578333</v>
+        <v>887124</v>
       </c>
       <c r="K15" s="13">
-        <v>887124</v>
+        <v>679039</v>
       </c>
       <c r="L15" s="13">
-        <v>679039</v>
+        <v>827588</v>
       </c>
       <c r="M15" s="13">
-        <v>827588</v>
+        <v>1210749</v>
       </c>
       <c r="N15" s="13">
-        <v>1210749</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1078923</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>6994</v>
+        <v>62006</v>
       </c>
       <c r="F16" s="9">
-        <v>62006</v>
+        <v>33569</v>
       </c>
       <c r="G16" s="9">
-        <v>33569</v>
+        <v>-54</v>
       </c>
       <c r="H16" s="9">
-        <v>-54</v>
+        <v>-53290</v>
       </c>
       <c r="I16" s="9">
-        <v>-53290</v>
+        <v>-61474</v>
       </c>
       <c r="J16" s="9">
-        <v>-61474</v>
+        <v>-60502</v>
       </c>
       <c r="K16" s="9">
-        <v>-60502</v>
+        <v>-165494</v>
       </c>
       <c r="L16" s="9">
-        <v>-165494</v>
+        <v>-79050</v>
       </c>
       <c r="M16" s="9">
-        <v>-79050</v>
+        <v>-199885</v>
       </c>
       <c r="N16" s="9">
-        <v>-199885</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>93943</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1212,44 +1212,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>358049</v>
+        <v>570737</v>
       </c>
       <c r="F18" s="15">
-        <v>570737</v>
+        <v>366980</v>
       </c>
       <c r="G18" s="15">
-        <v>366980</v>
+        <v>543463</v>
       </c>
       <c r="H18" s="15">
-        <v>543463</v>
+        <v>447719</v>
       </c>
       <c r="I18" s="15">
-        <v>447719</v>
+        <v>516859</v>
       </c>
       <c r="J18" s="15">
-        <v>516859</v>
+        <v>826622</v>
       </c>
       <c r="K18" s="15">
-        <v>826622</v>
+        <v>513545</v>
       </c>
       <c r="L18" s="15">
-        <v>513545</v>
+        <v>748538</v>
       </c>
       <c r="M18" s="15">
-        <v>748538</v>
+        <v>1010864</v>
       </c>
       <c r="N18" s="15">
-        <v>1010864</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1172866</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1259,108 +1259,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>31197</v>
       </c>
       <c r="G19" s="11">
-        <v>3116</v>
+        <v>27732</v>
       </c>
       <c r="H19" s="11">
-        <v>27732</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>51493</v>
       </c>
       <c r="K19" s="11">
-        <v>3665</v>
+        <v>66444</v>
       </c>
       <c r="L19" s="11">
-        <v>66444</v>
+        <v>5940</v>
       </c>
       <c r="M19" s="11">
-        <v>5940</v>
+        <v>67327</v>
       </c>
       <c r="N19" s="11">
-        <v>67327</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>90720</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>12636</v>
+        <v>3116</v>
       </c>
       <c r="F20" s="9">
-        <v>3116</v>
+        <v>-27732</v>
       </c>
       <c r="G20" s="9">
-        <v>-27732</v>
+        <v>-56430</v>
       </c>
       <c r="H20" s="9">
-        <v>-56430</v>
+        <v>1272</v>
       </c>
       <c r="I20" s="9">
-        <v>1272</v>
+        <v>3665</v>
       </c>
       <c r="J20" s="9">
-        <v>3665</v>
+        <v>-66445</v>
       </c>
       <c r="K20" s="9">
-        <v>-66444</v>
+        <v>-5940</v>
       </c>
       <c r="L20" s="9">
-        <v>-5940</v>
+        <v>-67327</v>
       </c>
       <c r="M20" s="9">
-        <v>-67327</v>
+        <v>-90720</v>
       </c>
       <c r="N20" s="9">
-        <v>-90720</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-113432</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>370685</v>
+        <v>573853</v>
       </c>
       <c r="F21" s="13">
-        <v>573853</v>
+        <v>370445</v>
       </c>
       <c r="G21" s="13">
-        <v>370445</v>
+        <v>514765</v>
       </c>
       <c r="H21" s="13">
-        <v>514765</v>
+        <v>448991</v>
       </c>
       <c r="I21" s="13">
-        <v>448991</v>
+        <v>520524</v>
       </c>
       <c r="J21" s="13">
-        <v>520524</v>
+        <v>811671</v>
       </c>
       <c r="K21" s="13">
-        <v>811671</v>
+        <v>574049</v>
       </c>
       <c r="L21" s="13">
-        <v>574049</v>
+        <v>687151</v>
       </c>
       <c r="M21" s="13">
-        <v>687151</v>
+        <v>987471</v>
       </c>
       <c r="N21" s="13">
-        <v>987471</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1150155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1397,44 +1397,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>370685</v>
+        <v>573853</v>
       </c>
       <c r="F23" s="13">
-        <v>573853</v>
+        <v>370445</v>
       </c>
       <c r="G23" s="13">
-        <v>370445</v>
+        <v>514765</v>
       </c>
       <c r="H23" s="13">
-        <v>514765</v>
+        <v>448991</v>
       </c>
       <c r="I23" s="13">
-        <v>448991</v>
+        <v>520524</v>
       </c>
       <c r="J23" s="13">
-        <v>520524</v>
+        <v>811671</v>
       </c>
       <c r="K23" s="13">
-        <v>811671</v>
+        <v>574049</v>
       </c>
       <c r="L23" s="13">
-        <v>574049</v>
+        <v>687151</v>
       </c>
       <c r="M23" s="13">
-        <v>687151</v>
+        <v>987471</v>
       </c>
       <c r="N23" s="13">
-        <v>987471</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1150155</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1449,7 +1449,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1479,7 +1479,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1531,7 +1531,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1540,37 +1540,37 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>2976</v>
+        <v>50</v>
       </c>
       <c r="F29" s="9">
-        <v>50</v>
+        <v>379174</v>
       </c>
       <c r="G29" s="9">
-        <v>379174</v>
+        <v>351754</v>
       </c>
       <c r="H29" s="9">
-        <v>351754</v>
+        <v>327503</v>
       </c>
       <c r="I29" s="9">
-        <v>327503</v>
+        <v>351481</v>
       </c>
       <c r="J29" s="9">
-        <v>351481</v>
+        <v>351514</v>
       </c>
       <c r="K29" s="9">
-        <v>351514</v>
+        <v>269736</v>
       </c>
       <c r="L29" s="9">
-        <v>269736</v>
+        <v>376291</v>
       </c>
       <c r="M29" s="9">
-        <v>376291</v>
+        <v>332307</v>
       </c>
       <c r="N29" s="9">
-        <v>332307</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>189551</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
@@ -1579,37 +1579,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>832</v>
+        <v>3218</v>
       </c>
       <c r="F30" s="11">
-        <v>3218</v>
+        <v>85</v>
       </c>
       <c r="G30" s="11">
-        <v>85</v>
+        <v>2469</v>
       </c>
       <c r="H30" s="11">
-        <v>2469</v>
+        <v>265</v>
       </c>
       <c r="I30" s="11">
-        <v>265</v>
+        <v>15143</v>
       </c>
       <c r="J30" s="11">
-        <v>15143</v>
+        <v>17670</v>
       </c>
       <c r="K30" s="11">
-        <v>17670</v>
+        <v>21727</v>
       </c>
       <c r="L30" s="11">
-        <v>21727</v>
+        <v>14638</v>
       </c>
       <c r="M30" s="11">
-        <v>14638</v>
+        <v>12087</v>
       </c>
       <c r="N30" s="11">
-        <v>12087</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8716</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
@@ -1618,37 +1618,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>1124228</v>
+        <v>997709</v>
       </c>
       <c r="F31" s="9">
-        <v>997709</v>
+        <v>513413</v>
       </c>
       <c r="G31" s="9">
-        <v>513413</v>
+        <v>490632</v>
       </c>
       <c r="H31" s="9">
-        <v>490632</v>
+        <v>461214</v>
       </c>
       <c r="I31" s="9">
-        <v>461214</v>
+        <v>421296</v>
       </c>
       <c r="J31" s="9">
-        <v>421296</v>
+        <v>365331</v>
       </c>
       <c r="K31" s="9">
-        <v>365331</v>
+        <v>446397</v>
       </c>
       <c r="L31" s="9">
-        <v>446397</v>
+        <v>515110</v>
       </c>
       <c r="M31" s="9">
-        <v>515110</v>
+        <v>562939</v>
       </c>
       <c r="N31" s="9">
-        <v>562939</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>477678</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
@@ -1657,37 +1657,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>26380</v>
+        <v>12420</v>
       </c>
       <c r="F32" s="11">
-        <v>12420</v>
+        <v>17</v>
       </c>
       <c r="G32" s="11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H32" s="11">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="I32" s="11">
-        <v>390</v>
+        <v>58</v>
       </c>
       <c r="J32" s="11">
-        <v>58</v>
+        <v>39781</v>
       </c>
       <c r="K32" s="11">
-        <v>39781</v>
+        <v>102204</v>
       </c>
       <c r="L32" s="11">
-        <v>102204</v>
+        <v>117494</v>
       </c>
       <c r="M32" s="11">
-        <v>117494</v>
+        <v>100125</v>
       </c>
       <c r="N32" s="11">
-        <v>100125</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>77197</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
@@ -1696,37 +1696,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>11814</v>
+        <v>5689</v>
       </c>
       <c r="F33" s="9">
-        <v>5689</v>
+        <v>1927</v>
       </c>
       <c r="G33" s="9">
-        <v>1927</v>
+        <v>1488</v>
       </c>
       <c r="H33" s="9">
-        <v>1488</v>
+        <v>1974</v>
       </c>
       <c r="I33" s="9">
-        <v>1974</v>
+        <v>1908</v>
       </c>
       <c r="J33" s="9">
-        <v>1908</v>
+        <v>2404</v>
       </c>
       <c r="K33" s="9">
-        <v>2404</v>
+        <v>5745</v>
       </c>
       <c r="L33" s="9">
-        <v>5745</v>
+        <v>5693</v>
       </c>
       <c r="M33" s="9">
-        <v>5693</v>
+        <v>6802</v>
       </c>
       <c r="N33" s="9">
-        <v>6802</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
@@ -1740,11 +1740,11 @@
       <c r="F34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>37</v>
@@ -1765,44 +1765,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
-        <v>1166230</v>
+        <v>1019086</v>
       </c>
       <c r="F35" s="15">
-        <v>1019086</v>
+        <v>894616</v>
       </c>
       <c r="G35" s="15">
-        <v>894616</v>
+        <v>846343</v>
       </c>
       <c r="H35" s="15">
-        <v>846343</v>
+        <v>791346</v>
       </c>
       <c r="I35" s="15">
-        <v>791346</v>
+        <v>789886</v>
       </c>
       <c r="J35" s="15">
-        <v>789886</v>
+        <v>776700</v>
       </c>
       <c r="K35" s="15">
-        <v>776700</v>
+        <v>845809</v>
       </c>
       <c r="L35" s="15">
-        <v>845809</v>
+        <v>1029226</v>
       </c>
       <c r="M35" s="15">
-        <v>1029226</v>
+        <v>1014260</v>
       </c>
       <c r="N35" s="15">
-        <v>1014260</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>755198</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1817,7 +1817,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1832,7 +1832,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1847,7 +1847,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1899,7 +1899,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>29</v>
       </c>
@@ -1908,37 +1908,37 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>94806</v>
+        <v>183689</v>
       </c>
       <c r="F41" s="9">
-        <v>183689</v>
+        <v>106780</v>
       </c>
       <c r="G41" s="9">
-        <v>106780</v>
+        <v>113930</v>
       </c>
       <c r="H41" s="9">
-        <v>113930</v>
+        <v>-4928</v>
       </c>
       <c r="I41" s="9">
-        <v>-4928</v>
+        <v>73133</v>
       </c>
       <c r="J41" s="9">
-        <v>73133</v>
+        <v>276447</v>
       </c>
       <c r="K41" s="9">
-        <v>276447</v>
+        <v>256455</v>
       </c>
       <c r="L41" s="9">
-        <v>256455</v>
+        <v>52116</v>
       </c>
       <c r="M41" s="9">
-        <v>52116</v>
+        <v>75191</v>
       </c>
       <c r="N41" s="9">
-        <v>75191</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>123590</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
@@ -1947,37 +1947,37 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>8308</v>
+        <v>6995</v>
       </c>
       <c r="F42" s="11">
-        <v>6995</v>
+        <v>14538</v>
       </c>
       <c r="G42" s="11">
-        <v>14538</v>
+        <v>6199</v>
       </c>
       <c r="H42" s="11">
-        <v>6199</v>
+        <v>20053</v>
       </c>
       <c r="I42" s="11">
-        <v>20053</v>
+        <v>9391</v>
       </c>
       <c r="J42" s="11">
-        <v>9391</v>
+        <v>12772</v>
       </c>
       <c r="K42" s="11">
-        <v>12772</v>
+        <v>63</v>
       </c>
       <c r="L42" s="11">
-        <v>63</v>
+        <v>3856</v>
       </c>
       <c r="M42" s="11">
-        <v>3856</v>
+        <v>7337</v>
       </c>
       <c r="N42" s="11">
-        <v>7337</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15553</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>32</v>
       </c>
@@ -1986,37 +1986,37 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>134408</v>
+        <v>-16973</v>
       </c>
       <c r="F43" s="9">
-        <v>-16973</v>
+        <v>135470</v>
       </c>
       <c r="G43" s="9">
-        <v>135470</v>
+        <v>135750</v>
       </c>
       <c r="H43" s="9">
-        <v>135750</v>
+        <v>257287</v>
       </c>
       <c r="I43" s="9">
-        <v>257287</v>
+        <v>202635</v>
       </c>
       <c r="J43" s="9">
-        <v>202635</v>
+        <v>38277</v>
       </c>
       <c r="K43" s="9">
-        <v>38277</v>
+        <v>215143</v>
       </c>
       <c r="L43" s="9">
-        <v>215143</v>
+        <v>166229</v>
       </c>
       <c r="M43" s="9">
-        <v>166229</v>
+        <v>100639</v>
       </c>
       <c r="N43" s="9">
-        <v>100639</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>48605</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>33</v>
       </c>
@@ -2025,37 +2025,37 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>17183</v>
+        <v>8004</v>
       </c>
       <c r="F44" s="11">
-        <v>8004</v>
+        <v>17146</v>
       </c>
       <c r="G44" s="11">
-        <v>17146</v>
+        <v>19559</v>
       </c>
       <c r="H44" s="11">
-        <v>19559</v>
+        <v>5299</v>
       </c>
       <c r="I44" s="11">
-        <v>5299</v>
+        <v>59316</v>
       </c>
       <c r="J44" s="11">
-        <v>59316</v>
+        <v>84268</v>
       </c>
       <c r="K44" s="11">
-        <v>84268</v>
+        <v>20725</v>
       </c>
       <c r="L44" s="11">
-        <v>20725</v>
+        <v>0</v>
       </c>
       <c r="M44" s="11">
         <v>0</v>
       </c>
       <c r="N44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>34</v>
       </c>
@@ -2064,37 +2064,37 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>532</v>
+        <v>3363</v>
       </c>
       <c r="F45" s="9">
-        <v>3363</v>
+        <v>4409</v>
       </c>
       <c r="G45" s="9">
-        <v>4409</v>
+        <v>5334</v>
       </c>
       <c r="H45" s="9">
-        <v>5334</v>
+        <v>2581</v>
       </c>
       <c r="I45" s="9">
-        <v>2581</v>
+        <v>8135</v>
       </c>
       <c r="J45" s="9">
-        <v>8135</v>
+        <v>7793</v>
       </c>
       <c r="K45" s="9">
-        <v>7793</v>
+        <v>5302</v>
       </c>
       <c r="L45" s="9">
-        <v>5302</v>
+        <v>4708</v>
       </c>
       <c r="M45" s="9">
-        <v>4708</v>
+        <v>1378</v>
       </c>
       <c r="N45" s="9">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15705</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>35</v>
       </c>
@@ -2108,11 +2108,11 @@
       <c r="F46" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>37</v>
@@ -2133,44 +2133,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>255237</v>
+        <v>185078</v>
       </c>
       <c r="F47" s="15">
-        <v>185078</v>
+        <v>278343</v>
       </c>
       <c r="G47" s="15">
-        <v>278343</v>
+        <v>280772</v>
       </c>
       <c r="H47" s="15">
-        <v>280772</v>
+        <v>280292</v>
       </c>
       <c r="I47" s="15">
-        <v>280292</v>
+        <v>352610</v>
       </c>
       <c r="J47" s="15">
-        <v>352610</v>
+        <v>419557</v>
       </c>
       <c r="K47" s="15">
-        <v>419557</v>
+        <v>497688</v>
       </c>
       <c r="L47" s="15">
-        <v>497688</v>
+        <v>226909</v>
       </c>
       <c r="M47" s="15">
-        <v>226909</v>
+        <v>184545</v>
       </c>
       <c r="N47" s="15">
-        <v>184545</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>206645</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2185,7 +2185,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2200,7 +2200,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2215,7 +2215,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>40</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2267,7 +2267,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>29</v>
       </c>
@@ -2276,37 +2276,37 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>97732</v>
+        <v>256761</v>
       </c>
       <c r="F53" s="9">
-        <v>256761</v>
+        <v>134201</v>
       </c>
       <c r="G53" s="9">
-        <v>134201</v>
+        <v>138181</v>
       </c>
       <c r="H53" s="9">
-        <v>138181</v>
+        <v>-28906</v>
       </c>
       <c r="I53" s="9">
-        <v>-28906</v>
+        <v>73100</v>
       </c>
       <c r="J53" s="9">
-        <v>73100</v>
+        <v>358225</v>
       </c>
       <c r="K53" s="9">
-        <v>358225</v>
+        <v>149900</v>
       </c>
       <c r="L53" s="9">
-        <v>149900</v>
+        <v>96103</v>
       </c>
       <c r="M53" s="9">
-        <v>96103</v>
+        <v>217947</v>
       </c>
       <c r="N53" s="9">
-        <v>217947</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24682</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>31</v>
       </c>
@@ -2315,37 +2315,37 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>5922</v>
+        <v>10128</v>
       </c>
       <c r="F54" s="11">
-        <v>10128</v>
+        <v>12154</v>
       </c>
       <c r="G54" s="11">
-        <v>12154</v>
+        <v>8403</v>
       </c>
       <c r="H54" s="11">
-        <v>8403</v>
+        <v>5175</v>
       </c>
       <c r="I54" s="11">
-        <v>5175</v>
+        <v>6864</v>
       </c>
       <c r="J54" s="11">
-        <v>6864</v>
+        <v>8715</v>
       </c>
       <c r="K54" s="11">
-        <v>8715</v>
+        <v>7152</v>
       </c>
       <c r="L54" s="11">
-        <v>7152</v>
+        <v>6407</v>
       </c>
       <c r="M54" s="11">
-        <v>6407</v>
+        <v>10708</v>
       </c>
       <c r="N54" s="11">
-        <v>10708</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21578</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>32</v>
       </c>
@@ -2354,37 +2354,37 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>260928</v>
+        <v>15126</v>
       </c>
       <c r="F55" s="9">
-        <v>15126</v>
+        <v>-41751</v>
       </c>
       <c r="G55" s="9">
-        <v>-41751</v>
+        <v>165168</v>
       </c>
       <c r="H55" s="9">
-        <v>165168</v>
+        <v>297205</v>
       </c>
       <c r="I55" s="9">
-        <v>297205</v>
+        <v>258600</v>
       </c>
       <c r="J55" s="9">
-        <v>258600</v>
+        <v>-42789</v>
       </c>
       <c r="K55" s="9">
-        <v>-42789</v>
+        <v>146430</v>
       </c>
       <c r="L55" s="9">
-        <v>146430</v>
+        <v>118400</v>
       </c>
       <c r="M55" s="9">
-        <v>118400</v>
+        <v>183900</v>
       </c>
       <c r="N55" s="9">
-        <v>183900</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38971</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>33</v>
       </c>
@@ -2393,37 +2393,37 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>31142</v>
+        <v>20408</v>
       </c>
       <c r="F56" s="11">
-        <v>20408</v>
+        <v>17163</v>
       </c>
       <c r="G56" s="11">
-        <v>17163</v>
+        <v>19169</v>
       </c>
       <c r="H56" s="11">
-        <v>19169</v>
+        <v>5631</v>
       </c>
       <c r="I56" s="11">
-        <v>5631</v>
+        <v>19593</v>
       </c>
       <c r="J56" s="11">
-        <v>19593</v>
+        <v>21845</v>
       </c>
       <c r="K56" s="11">
-        <v>21845</v>
+        <v>5435</v>
       </c>
       <c r="L56" s="11">
-        <v>5435</v>
+        <v>17369</v>
       </c>
       <c r="M56" s="11">
-        <v>17369</v>
+        <v>22928</v>
       </c>
       <c r="N56" s="11">
-        <v>22928</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6250</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>34</v>
       </c>
@@ -2432,37 +2432,37 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>6657</v>
+        <v>7125</v>
       </c>
       <c r="F57" s="9">
-        <v>7125</v>
+        <v>4847</v>
       </c>
       <c r="G57" s="9">
-        <v>4847</v>
+        <v>4848</v>
       </c>
       <c r="H57" s="9">
-        <v>4848</v>
+        <v>2647</v>
       </c>
       <c r="I57" s="9">
-        <v>2647</v>
+        <v>7639</v>
       </c>
       <c r="J57" s="9">
-        <v>7639</v>
+        <v>4452</v>
       </c>
       <c r="K57" s="9">
-        <v>4452</v>
+        <v>5354</v>
       </c>
       <c r="L57" s="9">
-        <v>5354</v>
+        <v>3599</v>
       </c>
       <c r="M57" s="9">
-        <v>3599</v>
+        <v>6124</v>
       </c>
       <c r="N57" s="9">
-        <v>6124</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>35</v>
       </c>
@@ -2476,11 +2476,11 @@
       <c r="F58" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G58" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0</v>
+      <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>37</v>
@@ -2501,44 +2501,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
-        <v>402381</v>
+        <v>309548</v>
       </c>
       <c r="F59" s="15">
-        <v>309548</v>
+        <v>126614</v>
       </c>
       <c r="G59" s="15">
-        <v>126614</v>
+        <v>335769</v>
       </c>
       <c r="H59" s="15">
-        <v>335769</v>
+        <v>281752</v>
       </c>
       <c r="I59" s="15">
-        <v>281752</v>
+        <v>365796</v>
       </c>
       <c r="J59" s="15">
-        <v>365796</v>
+        <v>350448</v>
       </c>
       <c r="K59" s="15">
-        <v>350448</v>
+        <v>314271</v>
       </c>
       <c r="L59" s="15">
-        <v>314271</v>
+        <v>241878</v>
       </c>
       <c r="M59" s="15">
-        <v>241878</v>
+        <v>441607</v>
       </c>
       <c r="N59" s="15">
-        <v>441607</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>82637</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2553,7 +2553,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2568,7 +2568,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2583,7 +2583,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>41</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2635,7 +2635,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>29</v>
       </c>
@@ -2644,37 +2644,37 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>50</v>
+        <v>379174</v>
       </c>
       <c r="F65" s="9">
-        <v>379174</v>
+        <v>351754</v>
       </c>
       <c r="G65" s="9">
-        <v>351754</v>
+        <v>327503</v>
       </c>
       <c r="H65" s="9">
-        <v>327503</v>
+        <v>351481</v>
       </c>
       <c r="I65" s="9">
-        <v>351481</v>
+        <v>351514</v>
       </c>
       <c r="J65" s="9">
-        <v>351514</v>
+        <v>269736</v>
       </c>
       <c r="K65" s="9">
-        <v>269736</v>
+        <v>376291</v>
       </c>
       <c r="L65" s="9">
-        <v>376291</v>
+        <v>332307</v>
       </c>
       <c r="M65" s="9">
-        <v>332307</v>
+        <v>189551</v>
       </c>
       <c r="N65" s="9">
-        <v>189551</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>288456</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>31</v>
       </c>
@@ -2683,37 +2683,37 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>3218</v>
+        <v>85</v>
       </c>
       <c r="F66" s="11">
-        <v>85</v>
+        <v>2469</v>
       </c>
       <c r="G66" s="11">
-        <v>2469</v>
+        <v>265</v>
       </c>
       <c r="H66" s="11">
-        <v>265</v>
+        <v>15143</v>
       </c>
       <c r="I66" s="11">
-        <v>15143</v>
+        <v>17670</v>
       </c>
       <c r="J66" s="11">
-        <v>17670</v>
+        <v>21727</v>
       </c>
       <c r="K66" s="11">
-        <v>21727</v>
+        <v>14638</v>
       </c>
       <c r="L66" s="11">
-        <v>14638</v>
+        <v>12087</v>
       </c>
       <c r="M66" s="11">
-        <v>12087</v>
+        <v>8716</v>
       </c>
       <c r="N66" s="11">
-        <v>8716</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>32</v>
       </c>
@@ -2722,37 +2722,37 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>997709</v>
+        <v>513413</v>
       </c>
       <c r="F67" s="9">
-        <v>513413</v>
+        <v>690635</v>
       </c>
       <c r="G67" s="9">
-        <v>690635</v>
+        <v>461214</v>
       </c>
       <c r="H67" s="9">
-        <v>461214</v>
+        <v>421296</v>
       </c>
       <c r="I67" s="9">
-        <v>421296</v>
+        <v>365331</v>
       </c>
       <c r="J67" s="9">
-        <v>365331</v>
+        <v>446397</v>
       </c>
       <c r="K67" s="9">
-        <v>446397</v>
+        <v>515110</v>
       </c>
       <c r="L67" s="9">
-        <v>515110</v>
+        <v>562939</v>
       </c>
       <c r="M67" s="9">
-        <v>562939</v>
+        <v>477678</v>
       </c>
       <c r="N67" s="9">
-        <v>477678</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>489312</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>33</v>
       </c>
@@ -2761,37 +2761,37 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>12420</v>
+        <v>17</v>
       </c>
       <c r="F68" s="11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G68" s="11">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="H68" s="11">
-        <v>390</v>
+        <v>58</v>
       </c>
       <c r="I68" s="11">
-        <v>58</v>
+        <v>39781</v>
       </c>
       <c r="J68" s="11">
-        <v>39781</v>
+        <v>102204</v>
       </c>
       <c r="K68" s="11">
-        <v>102204</v>
+        <v>117494</v>
       </c>
       <c r="L68" s="11">
-        <v>117494</v>
+        <v>100125</v>
       </c>
       <c r="M68" s="11">
-        <v>100125</v>
+        <v>77197</v>
       </c>
       <c r="N68" s="11">
-        <v>77197</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86639</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>34</v>
       </c>
@@ -2800,37 +2800,37 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>5689</v>
+        <v>1927</v>
       </c>
       <c r="F69" s="9">
-        <v>1927</v>
+        <v>1488</v>
       </c>
       <c r="G69" s="9">
-        <v>1488</v>
+        <v>1974</v>
       </c>
       <c r="H69" s="9">
-        <v>1974</v>
+        <v>1908</v>
       </c>
       <c r="I69" s="9">
-        <v>1908</v>
+        <v>2404</v>
       </c>
       <c r="J69" s="9">
-        <v>2404</v>
+        <v>5745</v>
       </c>
       <c r="K69" s="9">
-        <v>5745</v>
+        <v>5693</v>
       </c>
       <c r="L69" s="9">
-        <v>5693</v>
+        <v>6802</v>
       </c>
       <c r="M69" s="9">
-        <v>6802</v>
+        <v>2056</v>
       </c>
       <c r="N69" s="9">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14105</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>35</v>
       </c>
@@ -2844,11 +2844,11 @@
       <c r="F70" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" s="11">
-        <v>0</v>
+      <c r="G70" s="11">
+        <v>0</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>37</v>
@@ -2869,44 +2869,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>1019086</v>
+        <v>894616</v>
       </c>
       <c r="F71" s="15">
-        <v>894616</v>
+        <v>1046346</v>
       </c>
       <c r="G71" s="15">
-        <v>1046346</v>
+        <v>791346</v>
       </c>
       <c r="H71" s="15">
-        <v>791346</v>
+        <v>789886</v>
       </c>
       <c r="I71" s="15">
-        <v>789886</v>
+        <v>776700</v>
       </c>
       <c r="J71" s="15">
-        <v>776700</v>
+        <v>845809</v>
       </c>
       <c r="K71" s="15">
-        <v>845809</v>
+        <v>1029226</v>
       </c>
       <c r="L71" s="15">
-        <v>1029226</v>
+        <v>1014260</v>
       </c>
       <c r="M71" s="15">
-        <v>1014260</v>
+        <v>755198</v>
       </c>
       <c r="N71" s="15">
-        <v>755198</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>881204</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2921,7 +2921,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2936,7 +2936,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2951,7 +2951,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>42</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3003,7 +3003,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>29</v>
       </c>
@@ -3012,37 +3012,37 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F77" s="9">
-        <v>1</v>
+        <v>20573</v>
       </c>
       <c r="G77" s="9">
-        <v>20573</v>
+        <v>20432</v>
       </c>
       <c r="H77" s="9">
-        <v>20432</v>
+        <v>21755</v>
       </c>
       <c r="I77" s="9">
-        <v>21755</v>
+        <v>20476</v>
       </c>
       <c r="J77" s="9">
-        <v>20476</v>
+        <v>40077</v>
       </c>
       <c r="K77" s="9">
-        <v>40077</v>
+        <v>29415</v>
       </c>
       <c r="L77" s="9">
-        <v>29415</v>
+        <v>47268</v>
       </c>
       <c r="M77" s="9">
-        <v>47268</v>
+        <v>43942</v>
       </c>
       <c r="N77" s="9">
-        <v>43942</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25571</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>31</v>
       </c>
@@ -3051,37 +3051,37 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>719</v>
+        <v>4851</v>
       </c>
       <c r="F78" s="11">
-        <v>4851</v>
+        <v>161</v>
       </c>
       <c r="G78" s="11">
-        <v>161</v>
+        <v>5235</v>
       </c>
       <c r="H78" s="11">
-        <v>5235</v>
+        <v>705</v>
       </c>
       <c r="I78" s="11">
-        <v>705</v>
+        <v>42586</v>
       </c>
       <c r="J78" s="11">
-        <v>42586</v>
+        <v>49849</v>
       </c>
       <c r="K78" s="11">
-        <v>49849</v>
+        <v>61029</v>
       </c>
       <c r="L78" s="11">
-        <v>61029</v>
+        <v>41119</v>
       </c>
       <c r="M78" s="11">
-        <v>41119</v>
+        <v>35859</v>
       </c>
       <c r="N78" s="11">
-        <v>35859</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30057</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>32</v>
       </c>
@@ -3090,37 +3090,37 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>71436</v>
+        <v>67264</v>
       </c>
       <c r="F79" s="9">
-        <v>67264</v>
+        <v>40873</v>
       </c>
       <c r="G79" s="9">
-        <v>40873</v>
+        <v>48558</v>
       </c>
       <c r="H79" s="9">
-        <v>48558</v>
+        <v>58961</v>
       </c>
       <c r="I79" s="9">
-        <v>58961</v>
+        <v>78848</v>
       </c>
       <c r="J79" s="9">
-        <v>78848</v>
+        <v>67750</v>
       </c>
       <c r="K79" s="9">
-        <v>67750</v>
+        <v>119196</v>
       </c>
       <c r="L79" s="9">
-        <v>119196</v>
+        <v>182743</v>
       </c>
       <c r="M79" s="9">
-        <v>182743</v>
+        <v>264493</v>
       </c>
       <c r="N79" s="9">
-        <v>264493</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>247261</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>33</v>
       </c>
@@ -3129,37 +3129,37 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>7377</v>
+        <v>3475</v>
       </c>
       <c r="F80" s="11">
-        <v>3475</v>
+        <v>5</v>
       </c>
       <c r="G80" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H80" s="11">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="I80" s="11">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="J80" s="11">
-        <v>75</v>
+        <v>51317</v>
       </c>
       <c r="K80" s="11">
-        <v>51317</v>
+        <v>131844</v>
       </c>
       <c r="L80" s="11">
-        <v>131844</v>
+        <v>151565</v>
       </c>
       <c r="M80" s="11">
-        <v>151565</v>
+        <v>129159</v>
       </c>
       <c r="N80" s="11">
-        <v>129159</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>99583</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>34</v>
       </c>
@@ -3168,37 +3168,37 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>7215</v>
+        <v>4327</v>
       </c>
       <c r="F81" s="9">
-        <v>4327</v>
+        <v>2980</v>
       </c>
       <c r="G81" s="9">
-        <v>2980</v>
+        <v>5248</v>
       </c>
       <c r="H81" s="9">
-        <v>5248</v>
+        <v>7255</v>
       </c>
       <c r="I81" s="9">
-        <v>7255</v>
+        <v>7832</v>
       </c>
       <c r="J81" s="9">
-        <v>7832</v>
+        <v>15107</v>
       </c>
       <c r="K81" s="9">
-        <v>15107</v>
+        <v>35437</v>
       </c>
       <c r="L81" s="9">
-        <v>35437</v>
+        <v>39899</v>
       </c>
       <c r="M81" s="9">
-        <v>39899</v>
+        <v>48677</v>
       </c>
       <c r="N81" s="9">
-        <v>48677</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15141</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>35</v>
       </c>
@@ -3212,11 +3212,11 @@
       <c r="F82" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G82" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" s="11">
-        <v>0</v>
+      <c r="G82" s="11">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>37</v>
@@ -3237,44 +3237,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>86816</v>
+        <v>79918</v>
       </c>
       <c r="F83" s="15">
-        <v>79918</v>
+        <v>64592</v>
       </c>
       <c r="G83" s="15">
-        <v>64592</v>
+        <v>79473</v>
       </c>
       <c r="H83" s="15">
-        <v>79473</v>
+        <v>88873</v>
       </c>
       <c r="I83" s="15">
-        <v>88873</v>
+        <v>149817</v>
       </c>
       <c r="J83" s="15">
-        <v>149817</v>
+        <v>224100</v>
       </c>
       <c r="K83" s="15">
-        <v>224100</v>
+        <v>376921</v>
       </c>
       <c r="L83" s="15">
-        <v>376921</v>
+        <v>462594</v>
       </c>
       <c r="M83" s="15">
-        <v>462594</v>
+        <v>522130</v>
       </c>
       <c r="N83" s="15">
-        <v>522130</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>417613</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3289,7 +3289,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3304,7 +3304,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3319,7 +3319,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>43</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3371,7 +3371,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>29</v>
       </c>
@@ -3380,37 +3380,37 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>3388</v>
+        <v>15252</v>
       </c>
       <c r="F89" s="9">
-        <v>15252</v>
+        <v>-3367</v>
       </c>
       <c r="G89" s="9">
-        <v>-3367</v>
+        <v>8228</v>
       </c>
       <c r="H89" s="9">
-        <v>8228</v>
+        <v>-1783</v>
       </c>
       <c r="I89" s="9">
-        <v>-1783</v>
+        <v>28974</v>
       </c>
       <c r="J89" s="9">
-        <v>28974</v>
+        <v>22696</v>
       </c>
       <c r="K89" s="9">
-        <v>22696</v>
+        <v>36504</v>
       </c>
       <c r="L89" s="9">
-        <v>36504</v>
+        <v>9135</v>
       </c>
       <c r="M89" s="9">
-        <v>9135</v>
+        <v>12110</v>
       </c>
       <c r="N89" s="9">
-        <v>12110</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
@@ -3419,37 +3419,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>15611</v>
+        <v>14107</v>
       </c>
       <c r="F90" s="11">
-        <v>14107</v>
+        <v>33142</v>
       </c>
       <c r="G90" s="11">
-        <v>33142</v>
+        <v>15003</v>
       </c>
       <c r="H90" s="11">
-        <v>15003</v>
+        <v>57084</v>
       </c>
       <c r="I90" s="11">
-        <v>57084</v>
+        <v>26150</v>
       </c>
       <c r="J90" s="11">
-        <v>26150</v>
+        <v>35888</v>
       </c>
       <c r="K90" s="11">
-        <v>35888</v>
+        <v>184</v>
       </c>
       <c r="L90" s="11">
-        <v>184</v>
+        <v>13111</v>
       </c>
       <c r="M90" s="11">
-        <v>13111</v>
+        <v>27580</v>
       </c>
       <c r="N90" s="11">
-        <v>27580</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>65472</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>32</v>
       </c>
@@ -3458,37 +3458,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>27162</v>
+        <v>7255</v>
       </c>
       <c r="F91" s="9">
-        <v>7255</v>
+        <v>42009</v>
       </c>
       <c r="G91" s="9">
-        <v>42009</v>
+        <v>27288</v>
       </c>
       <c r="H91" s="9">
-        <v>27288</v>
+        <v>46325</v>
       </c>
       <c r="I91" s="9">
-        <v>46325</v>
+        <v>27003</v>
       </c>
       <c r="J91" s="9">
-        <v>27003</v>
+        <v>75215</v>
       </c>
       <c r="K91" s="9">
-        <v>75215</v>
+        <v>99397</v>
       </c>
       <c r="L91" s="9">
-        <v>99397</v>
+        <v>120124</v>
       </c>
       <c r="M91" s="9">
-        <v>120124</v>
+        <v>69835</v>
       </c>
       <c r="N91" s="9">
-        <v>69835</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38884</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>33</v>
       </c>
@@ -3497,37 +3497,37 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>5168</v>
+        <v>2447</v>
       </c>
       <c r="F92" s="11">
-        <v>2447</v>
+        <v>8844</v>
       </c>
       <c r="G92" s="11">
-        <v>8844</v>
+        <v>9670</v>
       </c>
       <c r="H92" s="11">
-        <v>9670</v>
+        <v>-335</v>
       </c>
       <c r="I92" s="11">
-        <v>-335</v>
+        <v>76518</v>
       </c>
       <c r="J92" s="11">
-        <v>76518</v>
+        <v>108706</v>
       </c>
       <c r="K92" s="11">
-        <v>108706</v>
+        <v>26732</v>
       </c>
       <c r="L92" s="11">
-        <v>26732</v>
+        <v>0</v>
       </c>
       <c r="M92" s="11">
         <v>0</v>
       </c>
       <c r="N92" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>34</v>
       </c>
@@ -3536,37 +3536,37 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>1485</v>
+        <v>9498</v>
       </c>
       <c r="F93" s="9">
-        <v>9498</v>
+        <v>17624</v>
       </c>
       <c r="G93" s="9">
-        <v>17624</v>
+        <v>19737</v>
       </c>
       <c r="H93" s="9">
-        <v>19737</v>
+        <v>10061</v>
       </c>
       <c r="I93" s="9">
-        <v>10061</v>
+        <v>42583</v>
       </c>
       <c r="J93" s="9">
-        <v>42583</v>
+        <v>47359</v>
       </c>
       <c r="K93" s="9">
-        <v>47359</v>
+        <v>38831</v>
       </c>
       <c r="L93" s="9">
-        <v>38831</v>
+        <v>34446</v>
       </c>
       <c r="M93" s="9">
-        <v>34446</v>
+        <v>10507</v>
       </c>
       <c r="N93" s="9">
-        <v>10507</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146362</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>35</v>
       </c>
@@ -3580,11 +3580,11 @@
       <c r="F94" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G94" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H94" s="11">
-        <v>0</v>
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>37</v>
@@ -3605,44 +3605,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>52814</v>
+        <v>48559</v>
       </c>
       <c r="F95" s="15">
-        <v>48559</v>
+        <v>98252</v>
       </c>
       <c r="G95" s="15">
-        <v>98252</v>
+        <v>79926</v>
       </c>
       <c r="H95" s="15">
-        <v>79926</v>
+        <v>111352</v>
       </c>
       <c r="I95" s="15">
-        <v>111352</v>
+        <v>201228</v>
       </c>
       <c r="J95" s="15">
-        <v>201228</v>
+        <v>289864</v>
       </c>
       <c r="K95" s="15">
-        <v>289864</v>
+        <v>201648</v>
       </c>
       <c r="L95" s="15">
-        <v>201648</v>
+        <v>176816</v>
       </c>
       <c r="M95" s="15">
-        <v>176816</v>
+        <v>120032</v>
       </c>
       <c r="N95" s="15">
-        <v>120032</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>274858</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3657,7 +3657,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3672,7 +3672,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3687,7 +3687,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>44</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3739,7 +3739,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>29</v>
       </c>
@@ -3748,37 +3748,37 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>3456</v>
+        <v>16280</v>
       </c>
       <c r="F101" s="9">
-        <v>16280</v>
+        <v>8710</v>
       </c>
       <c r="G101" s="9">
-        <v>8710</v>
+        <v>6905</v>
       </c>
       <c r="H101" s="9">
-        <v>6905</v>
+        <v>-504</v>
       </c>
       <c r="I101" s="9">
-        <v>-504</v>
+        <v>9373</v>
       </c>
       <c r="J101" s="9">
-        <v>9373</v>
+        <v>33358</v>
       </c>
       <c r="K101" s="9">
-        <v>33358</v>
+        <v>18651</v>
       </c>
       <c r="L101" s="9">
-        <v>18651</v>
+        <v>12461</v>
       </c>
       <c r="M101" s="9">
-        <v>12461</v>
+        <v>30481</v>
       </c>
       <c r="N101" s="9">
-        <v>30481</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>31</v>
       </c>
@@ -3787,37 +3787,37 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>11479</v>
+        <v>18797</v>
       </c>
       <c r="F102" s="11">
-        <v>18797</v>
+        <v>28068</v>
       </c>
       <c r="G102" s="11">
-        <v>28068</v>
+        <v>19533</v>
       </c>
       <c r="H102" s="11">
-        <v>19533</v>
+        <v>15203</v>
       </c>
       <c r="I102" s="11">
-        <v>15203</v>
+        <v>18887</v>
       </c>
       <c r="J102" s="11">
-        <v>18887</v>
+        <v>24698</v>
       </c>
       <c r="K102" s="11">
-        <v>24698</v>
+        <v>20094</v>
       </c>
       <c r="L102" s="11">
-        <v>20094</v>
+        <v>18371</v>
       </c>
       <c r="M102" s="11">
-        <v>18371</v>
+        <v>33392</v>
       </c>
       <c r="N102" s="11">
-        <v>33392</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84661</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>32</v>
       </c>
@@ -3826,37 +3826,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>30686</v>
+        <v>12046</v>
       </c>
       <c r="F103" s="9">
-        <v>12046</v>
+        <v>23036</v>
       </c>
       <c r="G103" s="9">
-        <v>23036</v>
+        <v>16885</v>
       </c>
       <c r="H103" s="9">
-        <v>16885</v>
+        <v>26438</v>
       </c>
       <c r="I103" s="9">
-        <v>26438</v>
+        <v>38101</v>
       </c>
       <c r="J103" s="9">
-        <v>38101</v>
+        <v>23769</v>
       </c>
       <c r="K103" s="9">
-        <v>23769</v>
+        <v>35850</v>
       </c>
       <c r="L103" s="9">
-        <v>35850</v>
+        <v>38374</v>
       </c>
       <c r="M103" s="9">
-        <v>38374</v>
+        <v>87067</v>
       </c>
       <c r="N103" s="9">
-        <v>87067</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26691</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>33</v>
       </c>
@@ -3865,37 +3865,37 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>9071</v>
+        <v>5917</v>
       </c>
       <c r="F104" s="11">
-        <v>5917</v>
+        <v>8848</v>
       </c>
       <c r="G104" s="11">
-        <v>8848</v>
+        <v>9473</v>
       </c>
       <c r="H104" s="11">
-        <v>9473</v>
+        <v>-213</v>
       </c>
       <c r="I104" s="11">
-        <v>-213</v>
+        <v>25276</v>
       </c>
       <c r="J104" s="11">
-        <v>25276</v>
+        <v>28179</v>
       </c>
       <c r="K104" s="11">
-        <v>28179</v>
+        <v>7011</v>
       </c>
       <c r="L104" s="11">
-        <v>7011</v>
+        <v>22406</v>
       </c>
       <c r="M104" s="11">
-        <v>22406</v>
+        <v>29576</v>
       </c>
       <c r="N104" s="11">
-        <v>29576</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-8062</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>34</v>
       </c>
@@ -3904,37 +3904,37 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>5020</v>
+        <v>10845</v>
       </c>
       <c r="F105" s="9">
-        <v>10845</v>
+        <v>14709</v>
       </c>
       <c r="G105" s="9">
-        <v>14709</v>
+        <v>17730</v>
       </c>
       <c r="H105" s="9">
-        <v>17730</v>
+        <v>9484</v>
       </c>
       <c r="I105" s="9">
-        <v>9484</v>
+        <v>35308</v>
       </c>
       <c r="J105" s="9">
-        <v>35308</v>
+        <v>27029</v>
       </c>
       <c r="K105" s="9">
-        <v>27029</v>
+        <v>34369</v>
       </c>
       <c r="L105" s="9">
-        <v>34369</v>
+        <v>25668</v>
       </c>
       <c r="M105" s="9">
-        <v>25668</v>
+        <v>44043</v>
       </c>
       <c r="N105" s="9">
-        <v>44043</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>35</v>
       </c>
@@ -3948,11 +3948,11 @@
       <c r="F106" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G106" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H106" s="11">
-        <v>0</v>
+      <c r="G106" s="11">
+        <v>0</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="I106" s="11" t="s">
         <v>37</v>
@@ -3973,44 +3973,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>59712</v>
+        <v>63885</v>
       </c>
       <c r="F107" s="15">
-        <v>63885</v>
+        <v>83371</v>
       </c>
       <c r="G107" s="15">
-        <v>83371</v>
+        <v>70526</v>
       </c>
       <c r="H107" s="15">
-        <v>70526</v>
+        <v>50408</v>
       </c>
       <c r="I107" s="15">
-        <v>50408</v>
+        <v>126945</v>
       </c>
       <c r="J107" s="15">
-        <v>126945</v>
+        <v>137033</v>
       </c>
       <c r="K107" s="15">
-        <v>137033</v>
+        <v>115975</v>
       </c>
       <c r="L107" s="15">
-        <v>115975</v>
+        <v>117280</v>
       </c>
       <c r="M107" s="15">
-        <v>117280</v>
+        <v>224559</v>
       </c>
       <c r="N107" s="15">
-        <v>224559</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>138856</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4025,7 +4025,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4040,7 +4040,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4055,7 +4055,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>45</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4107,7 +4107,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>29</v>
       </c>
@@ -4116,37 +4116,37 @@
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>1</v>
+        <v>20573</v>
       </c>
       <c r="F113" s="9">
-        <v>20573</v>
+        <v>20432</v>
       </c>
       <c r="G113" s="9">
-        <v>20432</v>
+        <v>21755</v>
       </c>
       <c r="H113" s="9">
-        <v>21755</v>
+        <v>20476</v>
       </c>
       <c r="I113" s="9">
-        <v>20476</v>
+        <v>40077</v>
       </c>
       <c r="J113" s="9">
-        <v>40077</v>
+        <v>29415</v>
       </c>
       <c r="K113" s="9">
-        <v>29415</v>
+        <v>47268</v>
       </c>
       <c r="L113" s="9">
-        <v>47268</v>
+        <v>43942</v>
       </c>
       <c r="M113" s="9">
-        <v>43942</v>
+        <v>25571</v>
       </c>
       <c r="N113" s="9">
-        <v>25571</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40827</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>31</v>
       </c>
@@ -4155,37 +4155,37 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>4851</v>
+        <v>161</v>
       </c>
       <c r="F114" s="11">
-        <v>161</v>
+        <v>5235</v>
       </c>
       <c r="G114" s="11">
-        <v>5235</v>
+        <v>705</v>
       </c>
       <c r="H114" s="11">
-        <v>705</v>
+        <v>42586</v>
       </c>
       <c r="I114" s="11">
-        <v>42586</v>
+        <v>49849</v>
       </c>
       <c r="J114" s="11">
-        <v>49849</v>
+        <v>61039</v>
       </c>
       <c r="K114" s="11">
-        <v>61039</v>
+        <v>41119</v>
       </c>
       <c r="L114" s="11">
-        <v>41119</v>
+        <v>35859</v>
       </c>
       <c r="M114" s="11">
-        <v>35859</v>
+        <v>30057</v>
       </c>
       <c r="N114" s="11">
-        <v>30057</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10868</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>32</v>
       </c>
@@ -4194,37 +4194,37 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>67264</v>
+        <v>40873</v>
       </c>
       <c r="F115" s="9">
-        <v>40873</v>
+        <v>48558</v>
       </c>
       <c r="G115" s="9">
-        <v>48558</v>
+        <v>58961</v>
       </c>
       <c r="H115" s="9">
-        <v>58961</v>
+        <v>78848</v>
       </c>
       <c r="I115" s="9">
-        <v>78848</v>
+        <v>67750</v>
       </c>
       <c r="J115" s="9">
-        <v>67750</v>
+        <v>119196</v>
       </c>
       <c r="K115" s="9">
-        <v>119196</v>
+        <v>182743</v>
       </c>
       <c r="L115" s="9">
-        <v>182743</v>
+        <v>264493</v>
       </c>
       <c r="M115" s="9">
-        <v>264493</v>
+        <v>247261</v>
       </c>
       <c r="N115" s="9">
-        <v>247261</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>259455</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>33</v>
       </c>
@@ -4233,37 +4233,37 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>3475</v>
+        <v>5</v>
       </c>
       <c r="F116" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G116" s="11">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="H116" s="11">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="I116" s="11">
-        <v>75</v>
+        <v>51317</v>
       </c>
       <c r="J116" s="11">
-        <v>51317</v>
+        <v>131844</v>
       </c>
       <c r="K116" s="11">
-        <v>131844</v>
+        <v>151565</v>
       </c>
       <c r="L116" s="11">
-        <v>151565</v>
+        <v>129159</v>
       </c>
       <c r="M116" s="11">
-        <v>129159</v>
+        <v>99583</v>
       </c>
       <c r="N116" s="11">
-        <v>99583</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>111763</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>34</v>
       </c>
@@ -4272,37 +4272,37 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>4327</v>
+        <v>2980</v>
       </c>
       <c r="F117" s="9">
-        <v>2980</v>
+        <v>5248</v>
       </c>
       <c r="G117" s="9">
-        <v>5248</v>
+        <v>7255</v>
       </c>
       <c r="H117" s="9">
-        <v>7255</v>
+        <v>7832</v>
       </c>
       <c r="I117" s="9">
-        <v>7832</v>
+        <v>15107</v>
       </c>
       <c r="J117" s="9">
-        <v>15107</v>
+        <v>35437</v>
       </c>
       <c r="K117" s="9">
-        <v>35437</v>
+        <v>39899</v>
       </c>
       <c r="L117" s="9">
-        <v>39899</v>
+        <v>48677</v>
       </c>
       <c r="M117" s="9">
-        <v>48677</v>
+        <v>15141</v>
       </c>
       <c r="N117" s="9">
-        <v>15141</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>130703</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>35</v>
       </c>
@@ -4316,11 +4316,11 @@
       <c r="F118" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G118" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H118" s="11">
-        <v>0</v>
+      <c r="G118" s="11">
+        <v>0</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>37</v>
@@ -4341,44 +4341,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>79918</v>
+        <v>64592</v>
       </c>
       <c r="F119" s="15">
-        <v>64592</v>
+        <v>79473</v>
       </c>
       <c r="G119" s="15">
-        <v>79473</v>
+        <v>88873</v>
       </c>
       <c r="H119" s="15">
-        <v>88873</v>
+        <v>149817</v>
       </c>
       <c r="I119" s="15">
-        <v>149817</v>
+        <v>224100</v>
       </c>
       <c r="J119" s="15">
-        <v>224100</v>
+        <v>376931</v>
       </c>
       <c r="K119" s="15">
-        <v>376931</v>
+        <v>462594</v>
       </c>
       <c r="L119" s="15">
-        <v>462594</v>
+        <v>522130</v>
       </c>
       <c r="M119" s="15">
-        <v>522130</v>
+        <v>417613</v>
       </c>
       <c r="N119" s="15">
-        <v>417613</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>553616</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4393,7 +4393,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4408,7 +4408,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4423,7 +4423,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>46</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4475,7 +4475,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>29</v>
       </c>
@@ -4483,38 +4483,38 @@
         <v>47</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>37</v>
+      <c r="E125" s="9">
+        <v>20000</v>
       </c>
       <c r="F125" s="9">
-        <v>20000</v>
+        <v>54257</v>
       </c>
       <c r="G125" s="9">
-        <v>54257</v>
+        <v>58086</v>
       </c>
       <c r="H125" s="9">
-        <v>58086</v>
+        <v>66427</v>
       </c>
       <c r="I125" s="9">
-        <v>66427</v>
+        <v>58256</v>
       </c>
       <c r="J125" s="9">
-        <v>58256</v>
+        <v>114013</v>
       </c>
       <c r="K125" s="9">
-        <v>114013</v>
+        <v>109051</v>
       </c>
       <c r="L125" s="9">
-        <v>109051</v>
+        <v>125616</v>
       </c>
       <c r="M125" s="9">
-        <v>125616</v>
+        <v>132233</v>
       </c>
       <c r="N125" s="9">
-        <v>132233</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>134903</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>31</v>
       </c>
@@ -4523,37 +4523,37 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>864183</v>
+        <v>1507458</v>
       </c>
       <c r="F126" s="11">
-        <v>1507458</v>
+        <v>1894118</v>
       </c>
       <c r="G126" s="11">
-        <v>1894118</v>
+        <v>2120292</v>
       </c>
       <c r="H126" s="11">
-        <v>2120292</v>
+        <v>2660377</v>
       </c>
       <c r="I126" s="11">
-        <v>2660377</v>
+        <v>2812256</v>
       </c>
       <c r="J126" s="11">
-        <v>2812256</v>
+        <v>2821109</v>
       </c>
       <c r="K126" s="11">
-        <v>2821109</v>
+        <v>2808901</v>
       </c>
       <c r="L126" s="11">
-        <v>2808901</v>
+        <v>2809059</v>
       </c>
       <c r="M126" s="11">
-        <v>2809059</v>
+        <v>2966741</v>
       </c>
       <c r="N126" s="11">
-        <v>2966741</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3448486</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>32</v>
       </c>
@@ -4562,37 +4562,37 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>63542</v>
+        <v>67418</v>
       </c>
       <c r="F127" s="9">
-        <v>67418</v>
+        <v>79610</v>
       </c>
       <c r="G127" s="9">
-        <v>79610</v>
+        <v>98970</v>
       </c>
       <c r="H127" s="9">
-        <v>98970</v>
+        <v>127839</v>
       </c>
       <c r="I127" s="9">
-        <v>127839</v>
+        <v>187156</v>
       </c>
       <c r="J127" s="9">
-        <v>187156</v>
+        <v>185448</v>
       </c>
       <c r="K127" s="9">
-        <v>185448</v>
+        <v>267018</v>
       </c>
       <c r="L127" s="9">
-        <v>267018</v>
+        <v>354765</v>
       </c>
       <c r="M127" s="9">
-        <v>354765</v>
+        <v>469843</v>
       </c>
       <c r="N127" s="9">
-        <v>469843</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>517631</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>33</v>
       </c>
@@ -4601,14 +4601,14 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>279644</v>
+        <v>279791</v>
       </c>
       <c r="F128" s="11">
-        <v>279791</v>
-      </c>
-      <c r="G128" s="11">
         <v>294118</v>
       </c>
+      <c r="G128" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="H128" s="11" t="s">
         <v>37</v>
       </c>
@@ -4618,20 +4618,20 @@
       <c r="J128" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K128" s="11" t="s">
-        <v>37</v>
+      <c r="K128" s="11">
+        <v>1290008</v>
       </c>
       <c r="L128" s="11">
-        <v>1290008</v>
+        <v>1289981</v>
       </c>
       <c r="M128" s="11">
-        <v>1289981</v>
+        <v>1289978</v>
       </c>
       <c r="N128" s="11">
-        <v>1289978</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1289985</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>34</v>
       </c>
@@ -4640,37 +4640,37 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>610716</v>
+        <v>760591</v>
       </c>
       <c r="F129" s="9">
-        <v>760591</v>
+        <v>1546445</v>
       </c>
       <c r="G129" s="9">
-        <v>1546445</v>
+        <v>3526882</v>
       </c>
       <c r="H129" s="9">
-        <v>3526882</v>
+        <v>3675279</v>
       </c>
       <c r="I129" s="9">
-        <v>3675279</v>
+        <v>4104822</v>
       </c>
       <c r="J129" s="9">
-        <v>4104822</v>
+        <v>6284110</v>
       </c>
       <c r="K129" s="9">
-        <v>6284110</v>
+        <v>6168320</v>
       </c>
       <c r="L129" s="9">
-        <v>6168320</v>
+        <v>7008431</v>
       </c>
       <c r="M129" s="9">
-        <v>7008431</v>
+        <v>7156278</v>
       </c>
       <c r="N129" s="9">
-        <v>7156278</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7364300</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4685,7 +4685,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4700,7 +4700,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4715,7 +4715,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>48</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4767,7 +4767,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>29</v>
       </c>
@@ -4776,37 +4776,37 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>35736</v>
+        <v>83032</v>
       </c>
       <c r="F135" s="9">
-        <v>83032</v>
+        <v>-31532</v>
       </c>
       <c r="G135" s="9">
-        <v>-31532</v>
+        <v>72220</v>
       </c>
       <c r="H135" s="9">
-        <v>72220</v>
+        <v>361810</v>
       </c>
       <c r="I135" s="9">
-        <v>361810</v>
+        <v>396182</v>
       </c>
       <c r="J135" s="9">
-        <v>396182</v>
+        <v>82099</v>
       </c>
       <c r="K135" s="9">
-        <v>82099</v>
+        <v>142341</v>
       </c>
       <c r="L135" s="9">
-        <v>142341</v>
+        <v>175282</v>
       </c>
       <c r="M135" s="9">
-        <v>175282</v>
+        <v>161057</v>
       </c>
       <c r="N135" s="9">
-        <v>161057</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>162003</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>31</v>
       </c>
@@ -4815,37 +4815,37 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>1879032</v>
+        <v>2016726</v>
       </c>
       <c r="F136" s="11">
-        <v>2016726</v>
+        <v>2279681</v>
       </c>
       <c r="G136" s="11">
-        <v>2279681</v>
+        <v>2420229</v>
       </c>
       <c r="H136" s="11">
-        <v>2420229</v>
+        <v>2846656</v>
       </c>
       <c r="I136" s="11">
-        <v>2846656</v>
+        <v>2784581</v>
       </c>
       <c r="J136" s="11">
-        <v>2784581</v>
+        <v>2809897</v>
       </c>
       <c r="K136" s="11">
-        <v>2809897</v>
+        <v>2920635</v>
       </c>
       <c r="L136" s="11">
-        <v>2920635</v>
+        <v>3400156</v>
       </c>
       <c r="M136" s="11">
-        <v>3400156</v>
+        <v>3759030</v>
       </c>
       <c r="N136" s="11">
-        <v>3759030</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4209606</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>32</v>
       </c>
@@ -4854,37 +4854,37 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>202086</v>
+        <v>-427444</v>
       </c>
       <c r="F137" s="9">
-        <v>-427444</v>
+        <v>310098</v>
       </c>
       <c r="G137" s="9">
-        <v>310098</v>
+        <v>201017</v>
       </c>
       <c r="H137" s="9">
-        <v>201017</v>
+        <v>180052</v>
       </c>
       <c r="I137" s="9">
-        <v>180052</v>
+        <v>133259</v>
       </c>
       <c r="J137" s="9">
-        <v>133259</v>
+        <v>1965018</v>
       </c>
       <c r="K137" s="9">
-        <v>1965018</v>
+        <v>462004</v>
       </c>
       <c r="L137" s="9">
-        <v>462004</v>
+        <v>722642</v>
       </c>
       <c r="M137" s="9">
-        <v>722642</v>
+        <v>693916</v>
       </c>
       <c r="N137" s="9">
-        <v>693916</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>33</v>
       </c>
@@ -4893,37 +4893,37 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>300762</v>
+        <v>305722</v>
       </c>
       <c r="F138" s="11">
-        <v>305722</v>
+        <v>515805</v>
       </c>
       <c r="G138" s="11">
-        <v>515805</v>
+        <v>494402</v>
       </c>
       <c r="H138" s="11">
-        <v>494402</v>
+        <v>-63219</v>
       </c>
       <c r="I138" s="11">
-        <v>-63219</v>
+        <v>1290006</v>
       </c>
       <c r="J138" s="11">
-        <v>1290006</v>
+        <v>1290003</v>
       </c>
       <c r="K138" s="11">
-        <v>1290003</v>
-      </c>
-      <c r="L138" s="11">
         <v>1289843</v>
       </c>
+      <c r="L138" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="M138" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N138" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N138" s="11">
+        <v>1290100</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>34</v>
       </c>
@@ -4932,37 +4932,37 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>2791353</v>
+        <v>2824264</v>
       </c>
       <c r="F139" s="9">
-        <v>2824264</v>
+        <v>3997278</v>
       </c>
       <c r="G139" s="9">
-        <v>3997278</v>
+        <v>3700225</v>
       </c>
       <c r="H139" s="9">
-        <v>3700225</v>
+        <v>3898102</v>
       </c>
       <c r="I139" s="9">
-        <v>3898102</v>
+        <v>5234542</v>
       </c>
       <c r="J139" s="9">
-        <v>5234542</v>
+        <v>6077120</v>
       </c>
       <c r="K139" s="9">
-        <v>6077120</v>
+        <v>7323840</v>
       </c>
       <c r="L139" s="9">
-        <v>7323840</v>
+        <v>7316483</v>
       </c>
       <c r="M139" s="9">
-        <v>7316483</v>
+        <v>7624819</v>
       </c>
       <c r="N139" s="9">
-        <v>7624819</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9319452</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4977,7 +4977,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4992,7 +4992,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5007,7 +5007,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>49</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5059,7 +5059,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>29</v>
       </c>
@@ -5068,37 +5068,37 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>35362</v>
+        <v>63405</v>
       </c>
       <c r="F145" s="9">
-        <v>63405</v>
+        <v>64903</v>
       </c>
       <c r="G145" s="9">
-        <v>64903</v>
+        <v>49971</v>
       </c>
       <c r="H145" s="9">
-        <v>49971</v>
+        <v>17436</v>
       </c>
       <c r="I145" s="9">
-        <v>17436</v>
+        <v>128222</v>
       </c>
       <c r="J145" s="9">
-        <v>128222</v>
+        <v>93120</v>
       </c>
       <c r="K145" s="9">
-        <v>93120</v>
+        <v>124423</v>
       </c>
       <c r="L145" s="9">
-        <v>124423</v>
+        <v>129663</v>
       </c>
       <c r="M145" s="9">
-        <v>129663</v>
+        <v>139855</v>
       </c>
       <c r="N145" s="9">
-        <v>139855</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>193096</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>31</v>
       </c>
@@ -5107,37 +5107,37 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>1938365</v>
+        <v>1855944</v>
       </c>
       <c r="F146" s="11">
-        <v>1855944</v>
+        <v>2309363</v>
       </c>
       <c r="G146" s="11">
-        <v>2309363</v>
+        <v>2324527</v>
       </c>
       <c r="H146" s="11">
-        <v>2324527</v>
+        <v>2937778</v>
       </c>
       <c r="I146" s="11">
-        <v>2937778</v>
+        <v>2751603</v>
       </c>
       <c r="J146" s="11">
-        <v>2751603</v>
+        <v>2833964</v>
       </c>
       <c r="K146" s="11">
-        <v>2833964</v>
+        <v>2809564</v>
       </c>
       <c r="L146" s="11">
-        <v>2809564</v>
+        <v>2867333</v>
       </c>
       <c r="M146" s="11">
-        <v>2867333</v>
+        <v>3118416</v>
       </c>
       <c r="N146" s="11">
-        <v>3118416</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3923487</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>32</v>
       </c>
@@ -5146,37 +5146,37 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>117603</v>
+        <v>796377</v>
       </c>
       <c r="F147" s="9">
-        <v>796377</v>
+        <v>-551747</v>
       </c>
       <c r="G147" s="9">
-        <v>-551747</v>
+        <v>102229</v>
       </c>
       <c r="H147" s="9">
-        <v>102229</v>
+        <v>88955</v>
       </c>
       <c r="I147" s="9">
-        <v>88955</v>
+        <v>147336</v>
       </c>
       <c r="J147" s="9">
-        <v>147336</v>
+        <v>-555493</v>
       </c>
       <c r="K147" s="9">
-        <v>-555493</v>
+        <v>244827</v>
       </c>
       <c r="L147" s="9">
-        <v>244827</v>
+        <v>324105</v>
       </c>
       <c r="M147" s="9">
-        <v>324105</v>
+        <v>473448</v>
       </c>
       <c r="N147" s="9">
-        <v>473448</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>684894</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>33</v>
       </c>
@@ -5185,37 +5185,37 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>291279</v>
+        <v>289935</v>
       </c>
       <c r="F148" s="11">
-        <v>289935</v>
+        <v>515528</v>
       </c>
       <c r="G148" s="11">
-        <v>515528</v>
+        <v>494183</v>
       </c>
       <c r="H148" s="11">
-        <v>494183</v>
+        <v>-37826</v>
       </c>
       <c r="I148" s="11">
-        <v>-37826</v>
+        <v>1290053</v>
       </c>
       <c r="J148" s="11">
-        <v>1290053</v>
+        <v>1289952</v>
       </c>
       <c r="K148" s="11">
-        <v>1289952</v>
+        <v>1289972</v>
       </c>
       <c r="L148" s="11">
-        <v>1289972</v>
+        <v>1289999</v>
       </c>
       <c r="M148" s="11">
-        <v>1289999</v>
+        <v>1289951</v>
       </c>
       <c r="N148" s="11">
-        <v>1289951</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1289920</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>34</v>
       </c>
@@ -5224,37 +5224,37 @@
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
-        <v>754093</v>
+        <v>1522105</v>
       </c>
       <c r="F149" s="9">
-        <v>1522105</v>
+        <v>3034661</v>
       </c>
       <c r="G149" s="9">
-        <v>3034661</v>
+        <v>3657178</v>
       </c>
       <c r="H149" s="9">
-        <v>3657178</v>
+        <v>3582924</v>
       </c>
       <c r="I149" s="9">
-        <v>3582924</v>
+        <v>4622071</v>
       </c>
       <c r="J149" s="9">
-        <v>4622071</v>
+        <v>6071204</v>
       </c>
       <c r="K149" s="9">
-        <v>6071204</v>
+        <v>6419313</v>
       </c>
       <c r="L149" s="9">
-        <v>6419313</v>
+        <v>7131981</v>
       </c>
       <c r="M149" s="9">
-        <v>7131981</v>
+        <v>7191868</v>
       </c>
       <c r="N149" s="9">
-        <v>7191868</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8424508</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5269,7 +5269,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5284,7 +5284,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5299,7 +5299,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>50</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5351,7 +5351,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>29</v>
       </c>
@@ -5362,35 +5362,35 @@
       <c r="E155" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F155" s="9" t="s">
-        <v>37</v>
+      <c r="F155" s="9">
+        <v>58086</v>
       </c>
       <c r="G155" s="9">
-        <v>58086</v>
+        <v>66427</v>
       </c>
       <c r="H155" s="9">
-        <v>66427</v>
+        <v>58256</v>
       </c>
       <c r="I155" s="9">
-        <v>58256</v>
+        <v>114013</v>
       </c>
       <c r="J155" s="9">
-        <v>114013</v>
+        <v>109051</v>
       </c>
       <c r="K155" s="9">
-        <v>109051</v>
+        <v>125616</v>
       </c>
       <c r="L155" s="9">
-        <v>125616</v>
+        <v>132233</v>
       </c>
       <c r="M155" s="9">
-        <v>132233</v>
+        <v>134903</v>
       </c>
       <c r="N155" s="9">
-        <v>134903</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>141536</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>31</v>
       </c>
@@ -5401,35 +5401,35 @@
       <c r="E156" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F156" s="11" t="s">
-        <v>37</v>
+      <c r="F156" s="11">
+        <v>2120292</v>
       </c>
       <c r="G156" s="11">
-        <v>2120292</v>
+        <v>2660377</v>
       </c>
       <c r="H156" s="11">
-        <v>2660377</v>
+        <v>2812256</v>
       </c>
       <c r="I156" s="11">
-        <v>2812256</v>
+        <v>2821109</v>
       </c>
       <c r="J156" s="11">
-        <v>2821109</v>
+        <v>2809362</v>
       </c>
       <c r="K156" s="11">
-        <v>2809362</v>
+        <v>2809059</v>
       </c>
       <c r="L156" s="11">
-        <v>2809059</v>
+        <v>2966741</v>
       </c>
       <c r="M156" s="11">
-        <v>2966741</v>
+        <v>3448486</v>
       </c>
       <c r="N156" s="11">
-        <v>3448486</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4037147</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>32</v>
       </c>
@@ -5440,35 +5440,35 @@
       <c r="E157" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F157" s="9" t="s">
-        <v>37</v>
+      <c r="F157" s="9">
+        <v>70309</v>
       </c>
       <c r="G157" s="9">
-        <v>70309</v>
+        <v>127839</v>
       </c>
       <c r="H157" s="9">
-        <v>127839</v>
+        <v>187156</v>
       </c>
       <c r="I157" s="9">
-        <v>187156</v>
+        <v>185448</v>
       </c>
       <c r="J157" s="9">
-        <v>185448</v>
+        <v>267018</v>
       </c>
       <c r="K157" s="9">
-        <v>267018</v>
+        <v>354765</v>
       </c>
       <c r="L157" s="9">
-        <v>354765</v>
+        <v>469843</v>
       </c>
       <c r="M157" s="9">
-        <v>469843</v>
+        <v>517631</v>
       </c>
       <c r="N157" s="9">
-        <v>517631</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>530245</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>33</v>
       </c>
@@ -5482,32 +5482,32 @@
       <c r="F158" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G158" s="11" t="s">
-        <v>37</v>
+      <c r="G158" s="11">
+        <v>505128</v>
       </c>
       <c r="H158" s="11">
-        <v>505128</v>
+        <v>1293103</v>
       </c>
       <c r="I158" s="11">
-        <v>1293103</v>
+        <v>1289988</v>
       </c>
       <c r="J158" s="11">
-        <v>1289988</v>
+        <v>1290008</v>
       </c>
       <c r="K158" s="11">
-        <v>1290008</v>
+        <v>1289981</v>
       </c>
       <c r="L158" s="11">
-        <v>1289981</v>
+        <v>1289978</v>
       </c>
       <c r="M158" s="11">
-        <v>1289978</v>
+        <v>1289985</v>
       </c>
       <c r="N158" s="11">
         <v>1289985</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>34</v>
       </c>
@@ -5518,35 +5518,35 @@
       <c r="E159" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F159" s="9" t="s">
-        <v>37</v>
+      <c r="F159" s="9">
+        <v>3526882</v>
       </c>
       <c r="G159" s="9">
-        <v>3526882</v>
+        <v>3675279</v>
       </c>
       <c r="H159" s="9">
-        <v>3675279</v>
+        <v>4104822</v>
       </c>
       <c r="I159" s="9">
-        <v>4104822</v>
+        <v>6284110</v>
       </c>
       <c r="J159" s="9">
-        <v>6284110</v>
+        <v>6168320</v>
       </c>
       <c r="K159" s="9">
-        <v>6168320</v>
+        <v>7008431</v>
       </c>
       <c r="L159" s="9">
-        <v>7008431</v>
+        <v>7156278</v>
       </c>
       <c r="M159" s="9">
-        <v>7156278</v>
+        <v>7364300</v>
       </c>
       <c r="N159" s="9">
-        <v>7364300</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9266430</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5561,7 +5561,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5576,7 +5576,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5591,7 +5591,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
         <v>51</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5643,7 +5643,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>52</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>53</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>54</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>55</v>
       </c>
@@ -5791,155 +5791,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
-        <v>66890</v>
+        <v>43867</v>
       </c>
       <c r="F169" s="9">
-        <v>43867</v>
+        <v>127965</v>
       </c>
       <c r="G169" s="9">
-        <v>127965</v>
+        <v>114722</v>
       </c>
       <c r="H169" s="9">
-        <v>114722</v>
+        <v>61524</v>
       </c>
       <c r="I169" s="9">
-        <v>61524</v>
+        <v>89274</v>
       </c>
       <c r="J169" s="9">
-        <v>89274</v>
+        <v>90700</v>
       </c>
       <c r="K169" s="9">
-        <v>90700</v>
+        <v>85760</v>
       </c>
       <c r="L169" s="9">
-        <v>85760</v>
+        <v>73391</v>
       </c>
       <c r="M169" s="9">
-        <v>73391</v>
+        <v>108403</v>
       </c>
       <c r="N169" s="9">
-        <v>108403</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>82095</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
-        <v>100426</v>
+        <v>110543</v>
       </c>
       <c r="F170" s="11">
-        <v>110543</v>
+        <v>2863</v>
       </c>
       <c r="G170" s="11">
-        <v>2863</v>
+        <v>105356</v>
       </c>
       <c r="H170" s="11">
-        <v>105356</v>
+        <v>156348</v>
       </c>
       <c r="I170" s="11">
-        <v>156348</v>
+        <v>150087</v>
       </c>
       <c r="J170" s="11">
-        <v>150087</v>
+        <v>299023</v>
       </c>
       <c r="K170" s="11">
-        <v>299023</v>
+        <v>186464</v>
       </c>
       <c r="L170" s="11">
-        <v>186464</v>
+        <v>123015</v>
       </c>
       <c r="M170" s="11">
-        <v>123015</v>
+        <v>447641</v>
       </c>
       <c r="N170" s="11">
-        <v>447641</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>198140</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9">
-        <v>7581</v>
+        <v>7575</v>
       </c>
       <c r="F171" s="9">
-        <v>7575</v>
+        <v>7531</v>
       </c>
       <c r="G171" s="9">
-        <v>7531</v>
+        <v>6868</v>
       </c>
       <c r="H171" s="9">
-        <v>6868</v>
+        <v>6709</v>
       </c>
       <c r="I171" s="9">
-        <v>6709</v>
+        <v>6644</v>
       </c>
       <c r="J171" s="9">
-        <v>6644</v>
+        <v>6580</v>
       </c>
       <c r="K171" s="9">
-        <v>6580</v>
+        <v>7188</v>
       </c>
       <c r="L171" s="9">
-        <v>7188</v>
+        <v>7519</v>
       </c>
       <c r="M171" s="9">
-        <v>7519</v>
+        <v>25089</v>
       </c>
       <c r="N171" s="9">
-        <v>25089</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34860</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
-        <v>35728</v>
+        <v>92091</v>
       </c>
       <c r="F172" s="11">
-        <v>92091</v>
+        <v>146497</v>
       </c>
       <c r="G172" s="11">
-        <v>146497</v>
+        <v>107284</v>
       </c>
       <c r="H172" s="11">
-        <v>107284</v>
+        <v>156987</v>
       </c>
       <c r="I172" s="11">
-        <v>156987</v>
+        <v>117454</v>
       </c>
       <c r="J172" s="11">
-        <v>117454</v>
+        <v>156331</v>
       </c>
       <c r="K172" s="11">
-        <v>156331</v>
+        <v>136472</v>
       </c>
       <c r="L172" s="11">
-        <v>136472</v>
+        <v>255087</v>
       </c>
       <c r="M172" s="11">
-        <v>255087</v>
+        <v>218728</v>
       </c>
       <c r="N172" s="11">
-        <v>218728</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>254318</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>60</v>
       </c>
@@ -5976,81 +5976,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
-        <v>53544</v>
+        <v>170131</v>
       </c>
       <c r="F174" s="11">
-        <v>170131</v>
+        <v>-53224</v>
       </c>
       <c r="G174" s="11">
-        <v>-53224</v>
+        <v>115105</v>
       </c>
       <c r="H174" s="11">
-        <v>115105</v>
+        <v>43008</v>
       </c>
       <c r="I174" s="11">
-        <v>43008</v>
+        <v>56719</v>
       </c>
       <c r="J174" s="11">
-        <v>56719</v>
+        <v>142161</v>
       </c>
       <c r="K174" s="11">
-        <v>142161</v>
+        <v>129770</v>
       </c>
       <c r="L174" s="11">
-        <v>129770</v>
+        <v>194488</v>
       </c>
       <c r="M174" s="11">
-        <v>194488</v>
+        <v>144685</v>
       </c>
       <c r="N174" s="11">
-        <v>144685</v>
-      </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+        <v>325144</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15">
-        <v>264169</v>
+        <v>424207</v>
       </c>
       <c r="F175" s="15">
-        <v>424207</v>
+        <v>231632</v>
       </c>
       <c r="G175" s="15">
-        <v>231632</v>
+        <v>449335</v>
       </c>
       <c r="H175" s="15">
-        <v>449335</v>
+        <v>424576</v>
       </c>
       <c r="I175" s="15">
-        <v>424576</v>
+        <v>420178</v>
       </c>
       <c r="J175" s="15">
-        <v>420178</v>
+        <v>694795</v>
       </c>
       <c r="K175" s="15">
-        <v>694795</v>
+        <v>545654</v>
       </c>
       <c r="L175" s="15">
-        <v>545654</v>
+        <v>653500</v>
       </c>
       <c r="M175" s="15">
-        <v>653500</v>
+        <v>944546</v>
       </c>
       <c r="N175" s="15">
-        <v>944546</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+        <v>894557</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6065,7 +6065,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6080,7 +6080,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6095,7 +6095,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>62</v>
       </c>
@@ -6112,7 +6112,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -6127,7 +6127,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>63</v>
       </c>
@@ -6146,7 +6146,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>65</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>67</v>
       </c>
@@ -6176,7 +6176,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>69</v>
       </c>
@@ -6187,7 +6187,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>71</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>73</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>75</v>
       </c>
@@ -6220,7 +6220,7 @@
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>77</v>
       </c>
@@ -6231,7 +6231,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>79</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>81</v>
       </c>
@@ -6253,7 +6253,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>83</v>
       </c>
@@ -6264,7 +6264,7 @@
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>85</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>87</v>
       </c>
